--- a/England League 2/England League 2.xlsx
+++ b/England League 2/England League 2.xlsx
@@ -47383,7 +47383,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>6807961</v>
+        <v>6807832</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47395,10 +47395,10 @@
         <v>45269.5</v>
       </c>
       <c r="F527" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G527" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H527">
         <v>1</v>
@@ -47410,55 +47410,55 @@
         <v>61</v>
       </c>
       <c r="K527">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L527">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M527">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="N527">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O527">
         <v>3.75</v>
       </c>
       <c r="P527">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q527">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R527">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S527">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T527">
         <v>3</v>
       </c>
       <c r="U527">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V527">
+        <v>1.925</v>
+      </c>
+      <c r="W527">
+        <v>-1</v>
+      </c>
+      <c r="X527">
+        <v>-1</v>
+      </c>
+      <c r="Y527">
         <v>1.875</v>
       </c>
-      <c r="W527">
-        <v>-1</v>
-      </c>
-      <c r="X527">
-        <v>-1</v>
-      </c>
-      <c r="Y527">
-        <v>3.5</v>
-      </c>
       <c r="Z527">
         <v>-1</v>
       </c>
       <c r="AA527">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB527">
         <v>0</v>
@@ -47472,7 +47472,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>6807832</v>
+        <v>6807961</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -47484,10 +47484,10 @@
         <v>45269.5</v>
       </c>
       <c r="F528" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G528" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H528">
         <v>1</v>
@@ -47499,40 +47499,40 @@
         <v>61</v>
       </c>
       <c r="K528">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L528">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M528">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="N528">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O528">
         <v>3.75</v>
       </c>
       <c r="P528">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q528">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R528">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S528">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T528">
         <v>3</v>
       </c>
       <c r="U528">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V528">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W528">
         <v>-1</v>
@@ -47541,13 +47541,13 @@
         <v>-1</v>
       </c>
       <c r="Y528">
-        <v>1.875</v>
+        <v>3.5</v>
       </c>
       <c r="Z528">
         <v>-1</v>
       </c>
       <c r="AA528">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB528">
         <v>0</v>
@@ -53079,7 +53079,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>6807988</v>
+        <v>6807991</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53091,76 +53091,76 @@
         <v>45297.5</v>
       </c>
       <c r="F591" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G591" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I591">
+        <v>2</v>
+      </c>
+      <c r="J591" t="s">
+        <v>60</v>
+      </c>
+      <c r="K591">
+        <v>2</v>
+      </c>
+      <c r="L591">
+        <v>3.5</v>
+      </c>
+      <c r="M591">
+        <v>3.6</v>
+      </c>
+      <c r="N591">
+        <v>2.6</v>
+      </c>
+      <c r="O591">
+        <v>3.5</v>
+      </c>
+      <c r="P591">
+        <v>2.6</v>
+      </c>
+      <c r="Q591">
         <v>0</v>
       </c>
-      <c r="J591" t="s">
-        <v>59</v>
-      </c>
-      <c r="K591">
-        <v>1.727</v>
-      </c>
-      <c r="L591">
-        <v>3.75</v>
-      </c>
-      <c r="M591">
-        <v>4.5</v>
-      </c>
-      <c r="N591">
-        <v>2</v>
-      </c>
-      <c r="O591">
-        <v>3.4</v>
-      </c>
-      <c r="P591">
-        <v>4</v>
-      </c>
-      <c r="Q591">
-        <v>-0.5</v>
-      </c>
       <c r="R591">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S591">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T591">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U591">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V591">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W591">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X591">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y591">
         <v>-1</v>
       </c>
       <c r="Z591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA591">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB591">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC591">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53168,7 +53168,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>6812341</v>
+        <v>6807988</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53180,76 +53180,76 @@
         <v>45297.5</v>
       </c>
       <c r="F592" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G592" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I592">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J592" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K592">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L592">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M592">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N592">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O592">
+        <v>3.4</v>
+      </c>
+      <c r="P592">
         <v>4</v>
       </c>
-      <c r="P592">
-        <v>3.1</v>
-      </c>
       <c r="Q592">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R592">
+        <v>2</v>
+      </c>
+      <c r="S592">
+        <v>1.85</v>
+      </c>
+      <c r="T592">
+        <v>2.25</v>
+      </c>
+      <c r="U592">
+        <v>1.975</v>
+      </c>
+      <c r="V592">
         <v>1.875</v>
       </c>
-      <c r="S592">
-        <v>1.975</v>
-      </c>
-      <c r="T592">
-        <v>3</v>
-      </c>
-      <c r="U592">
-        <v>1.8</v>
-      </c>
-      <c r="V592">
-        <v>2.05</v>
-      </c>
       <c r="W592">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X592">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y592">
         <v>-1</v>
       </c>
       <c r="Z592">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA592">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB592">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC592">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53257,7 +53257,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>6957394</v>
+        <v>6812341</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53269,40 +53269,40 @@
         <v>45297.5</v>
       </c>
       <c r="F593" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G593" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J593" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K593">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L593">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M593">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N593">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O593">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P593">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q593">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R593">
         <v>1.875</v>
@@ -53314,31 +53314,31 @@
         <v>3</v>
       </c>
       <c r="U593">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V593">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W593">
         <v>-1</v>
       </c>
       <c r="X593">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y593">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z593">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA593">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB593">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC593">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -53346,7 +53346,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>6807991</v>
+        <v>6957394</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -53358,76 +53358,76 @@
         <v>45297.5</v>
       </c>
       <c r="F594" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G594" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J594" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K594">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="L594">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M594">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N594">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="O594">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P594">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q594">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R594">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S594">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T594">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U594">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V594">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W594">
         <v>-1</v>
       </c>
       <c r="X594">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y594">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z594">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA594">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB594">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC594">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="595" spans="1:29">
@@ -54592,7 +54592,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>6975285</v>
+        <v>6956899</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54604,76 +54604,76 @@
         <v>45311.5</v>
       </c>
       <c r="F608" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G608" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H608">
         <v>1</v>
       </c>
       <c r="I608">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J608" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K608">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L608">
         <v>3.8</v>
       </c>
       <c r="M608">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="N608">
+        <v>3.9</v>
+      </c>
+      <c r="O608">
+        <v>3.9</v>
+      </c>
+      <c r="P608">
         <v>1.85</v>
       </c>
-      <c r="O608">
-        <v>3.6</v>
-      </c>
-      <c r="P608">
-        <v>4.333</v>
-      </c>
       <c r="Q608">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R608">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S608">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T608">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U608">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V608">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W608">
-        <v>-1</v>
+        <v>2.9</v>
       </c>
       <c r="X608">
         <v>-1</v>
       </c>
       <c r="Y608">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z608">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA608">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB608">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC608">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="609" spans="1:29">
@@ -54681,7 +54681,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>6956899</v>
+        <v>6975285</v>
       </c>
       <c r="C609" t="s">
         <v>28</v>
@@ -54693,76 +54693,76 @@
         <v>45311.5</v>
       </c>
       <c r="F609" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G609" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H609">
         <v>1</v>
       </c>
       <c r="I609">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J609" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K609">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L609">
         <v>3.8</v>
       </c>
       <c r="M609">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N609">
-        <v>3.9</v>
+        <v>1.85</v>
       </c>
       <c r="O609">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="P609">
+        <v>4.333</v>
+      </c>
+      <c r="Q609">
+        <v>-0.5</v>
+      </c>
+      <c r="R609">
+        <v>1.825</v>
+      </c>
+      <c r="S609">
+        <v>2.025</v>
+      </c>
+      <c r="T609">
+        <v>2.25</v>
+      </c>
+      <c r="U609">
         <v>1.85</v>
       </c>
-      <c r="Q609">
-        <v>0.5</v>
-      </c>
-      <c r="R609">
-        <v>1.975</v>
-      </c>
-      <c r="S609">
-        <v>1.875</v>
-      </c>
-      <c r="T609">
-        <v>2.75</v>
-      </c>
-      <c r="U609">
-        <v>1.95</v>
-      </c>
       <c r="V609">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W609">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="X609">
         <v>-1</v>
       </c>
       <c r="Y609">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z609">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA609">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB609">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC609">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="610" spans="1:29">
@@ -57529,7 +57529,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>7107863</v>
+        <v>7128522</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57541,76 +57541,76 @@
         <v>45332.5</v>
       </c>
       <c r="F641" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G641" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J641" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K641">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="L641">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M641">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="N641">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O641">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P641">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="Q641">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R641">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S641">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T641">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U641">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V641">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W641">
         <v>-1</v>
       </c>
       <c r="X641">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y641">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z641">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA641">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB641">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC641">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="642" spans="1:29">
@@ -57618,7 +57618,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>7128522</v>
+        <v>7107863</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57630,76 +57630,76 @@
         <v>45332.5</v>
       </c>
       <c r="F642" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G642" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H642">
+        <v>1</v>
+      </c>
+      <c r="I642">
+        <v>1</v>
+      </c>
+      <c r="J642" t="s">
+        <v>60</v>
+      </c>
+      <c r="K642">
+        <v>2.25</v>
+      </c>
+      <c r="L642">
+        <v>3.75</v>
+      </c>
+      <c r="M642">
+        <v>2.875</v>
+      </c>
+      <c r="N642">
+        <v>2.7</v>
+      </c>
+      <c r="O642">
+        <v>3.8</v>
+      </c>
+      <c r="P642">
+        <v>2.375</v>
+      </c>
+      <c r="Q642">
         <v>0</v>
       </c>
-      <c r="I642">
-        <v>4</v>
-      </c>
-      <c r="J642" t="s">
-        <v>61</v>
-      </c>
-      <c r="K642">
-        <v>4.5</v>
-      </c>
-      <c r="L642">
-        <v>3.5</v>
-      </c>
-      <c r="M642">
+      <c r="R642">
+        <v>2.05</v>
+      </c>
+      <c r="S642">
         <v>1.8</v>
       </c>
-      <c r="N642">
-        <v>4.2</v>
-      </c>
-      <c r="O642">
-        <v>3.5</v>
-      </c>
-      <c r="P642">
+      <c r="T642">
+        <v>3</v>
+      </c>
+      <c r="U642">
+        <v>2</v>
+      </c>
+      <c r="V642">
         <v>1.85</v>
       </c>
-      <c r="Q642">
-        <v>0.5</v>
-      </c>
-      <c r="R642">
-        <v>1.95</v>
-      </c>
-      <c r="S642">
-        <v>1.9</v>
-      </c>
-      <c r="T642">
-        <v>2.5</v>
-      </c>
-      <c r="U642">
-        <v>1.825</v>
-      </c>
-      <c r="V642">
-        <v>2.025</v>
-      </c>
       <c r="W642">
         <v>-1</v>
       </c>
       <c r="X642">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y642">
+        <v>-1</v>
+      </c>
+      <c r="Z642">
+        <v>0</v>
+      </c>
+      <c r="AA642">
+        <v>-0</v>
+      </c>
+      <c r="AB642">
+        <v>-1</v>
+      </c>
+      <c r="AC642">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z642">
-        <v>-1</v>
-      </c>
-      <c r="AA642">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB642">
-        <v>0.825</v>
-      </c>
-      <c r="AC642">
-        <v>-1</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -58330,7 +58330,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>7157535</v>
+        <v>7157536</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -58342,76 +58342,76 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F650" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G650" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I650">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J650" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K650">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L650">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M650">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N650">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O650">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P650">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q650">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R650">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S650">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T650">
         <v>2.5</v>
       </c>
       <c r="U650">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V650">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W650">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X650">
         <v>-1</v>
       </c>
       <c r="Y650">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z650">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA650">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB650">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC650">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="651" spans="1:29">
@@ -58419,7 +58419,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>7157536</v>
+        <v>7157546</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58431,49 +58431,49 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F651" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G651" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H651">
         <v>1</v>
       </c>
       <c r="I651">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J651" t="s">
         <v>61</v>
       </c>
       <c r="K651">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L651">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M651">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N651">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O651">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P651">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q651">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R651">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S651">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T651">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U651">
         <v>2.025</v>
@@ -58488,13 +58488,13 @@
         <v>-1</v>
       </c>
       <c r="Y651">
-        <v>4.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z651">
         <v>-1</v>
       </c>
       <c r="AA651">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB651">
         <v>1.025</v>
@@ -58508,7 +58508,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>7157546</v>
+        <v>7158685</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58520,40 +58520,40 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F652" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G652" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I652">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J652" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K652">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="L652">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M652">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="N652">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="O652">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P652">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q652">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R652">
         <v>1.925</v>
@@ -58562,31 +58562,31 @@
         <v>1.925</v>
       </c>
       <c r="T652">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U652">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V652">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W652">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X652">
         <v>-1</v>
       </c>
       <c r="Y652">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z652">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA652">
+        <v>-1</v>
+      </c>
+      <c r="AB652">
         <v>0.925</v>
-      </c>
-      <c r="AB652">
-        <v>1.025</v>
       </c>
       <c r="AC652">
         <v>-1</v>
@@ -58597,7 +58597,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>7158685</v>
+        <v>7141504</v>
       </c>
       <c r="C653" t="s">
         <v>28</v>
@@ -58609,58 +58609,58 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F653" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G653" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H653">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I653">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J653" t="s">
         <v>59</v>
       </c>
       <c r="K653">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L653">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M653">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N653">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O653">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P653">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q653">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R653">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S653">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T653">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U653">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V653">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W653">
-        <v>0.55</v>
+        <v>1.3</v>
       </c>
       <c r="X653">
         <v>-1</v>
@@ -58669,13 +58669,13 @@
         <v>-1</v>
       </c>
       <c r="Z653">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA653">
         <v>-1</v>
       </c>
       <c r="AB653">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC653">
         <v>-1</v>
@@ -58686,7 +58686,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>7141504</v>
+        <v>7157045</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58698,73 +58698,73 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F654" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G654" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H654">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I654">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J654" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K654">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L654">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M654">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N654">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O654">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P654">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q654">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R654">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S654">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T654">
         <v>2.5</v>
       </c>
       <c r="U654">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V654">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W654">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X654">
         <v>-1</v>
       </c>
       <c r="Y654">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z654">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA654">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB654">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC654">
         <v>-1</v>
@@ -58775,7 +58775,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>7157045</v>
+        <v>7157535</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58787,76 +58787,76 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F655" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G655" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H655">
         <v>2</v>
       </c>
       <c r="I655">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J655" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K655">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L655">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M655">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N655">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O655">
         <v>3.6</v>
       </c>
       <c r="P655">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q655">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R655">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S655">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T655">
         <v>2.5</v>
       </c>
       <c r="U655">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V655">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W655">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X655">
         <v>-1</v>
       </c>
       <c r="Y655">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z655">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA655">
+        <v>-1</v>
+      </c>
+      <c r="AB655">
+        <v>-1</v>
+      </c>
+      <c r="AC655">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB655">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC655">
-        <v>-1</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -58864,7 +58864,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>7128519</v>
+        <v>7128521</v>
       </c>
       <c r="C656" t="s">
         <v>28</v>
@@ -58876,46 +58876,46 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F656" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G656" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H656">
         <v>1</v>
       </c>
       <c r="I656">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J656" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K656">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L656">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M656">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="N656">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O656">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P656">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q656">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R656">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S656">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T656">
         <v>2.75</v>
@@ -58930,22 +58930,22 @@
         <v>-1</v>
       </c>
       <c r="X656">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y656">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z656">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA656">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB656">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC656">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="657" spans="1:29">
@@ -58953,7 +58953,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>7128521</v>
+        <v>7128519</v>
       </c>
       <c r="C657" t="s">
         <v>28</v>
@@ -58965,46 +58965,46 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F657" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G657" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H657">
         <v>1</v>
       </c>
       <c r="I657">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J657" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K657">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L657">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M657">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N657">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O657">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P657">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q657">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R657">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S657">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T657">
         <v>2.75</v>
@@ -59019,22 +59019,22 @@
         <v>-1</v>
       </c>
       <c r="X657">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y657">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z657">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA657">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB657">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC657">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="658" spans="1:29">
@@ -59131,7 +59131,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>7128520</v>
+        <v>7158686</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59143,10 +59143,10 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F659" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G659" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H659">
         <v>2</v>
@@ -59158,10 +59158,10 @@
         <v>60</v>
       </c>
       <c r="K659">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L659">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M659">
         <v>3.6</v>
@@ -59173,25 +59173,25 @@
         <v>3.8</v>
       </c>
       <c r="P659">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q659">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R659">
+        <v>2.025</v>
+      </c>
+      <c r="S659">
         <v>1.825</v>
       </c>
-      <c r="S659">
+      <c r="T659">
+        <v>2.75</v>
+      </c>
+      <c r="U659">
         <v>2.025</v>
       </c>
-      <c r="T659">
-        <v>2.5</v>
-      </c>
-      <c r="U659">
-        <v>1.85</v>
-      </c>
       <c r="V659">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W659">
         <v>-1</v>
@@ -59206,10 +59206,10 @@
         <v>-1</v>
       </c>
       <c r="AA659">
+        <v>0.825</v>
+      </c>
+      <c r="AB659">
         <v>1.025</v>
-      </c>
-      <c r="AB659">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC659">
         <v>-1</v>
@@ -59220,7 +59220,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>7158686</v>
+        <v>7128520</v>
       </c>
       <c r="C660" t="s">
         <v>28</v>
@@ -59232,10 +59232,10 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F660" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G660" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H660">
         <v>2</v>
@@ -59247,10 +59247,10 @@
         <v>60</v>
       </c>
       <c r="K660">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L660">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M660">
         <v>3.6</v>
@@ -59262,25 +59262,25 @@
         <v>3.8</v>
       </c>
       <c r="P660">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q660">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R660">
+        <v>1.825</v>
+      </c>
+      <c r="S660">
         <v>2.025</v>
       </c>
-      <c r="S660">
-        <v>1.825</v>
-      </c>
       <c r="T660">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U660">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V660">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W660">
         <v>-1</v>
@@ -59295,10 +59295,10 @@
         <v>-1</v>
       </c>
       <c r="AA660">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB660">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC660">
         <v>-1</v>
@@ -61860,7 +61860,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>7847671</v>
+        <v>7777542</v>
       </c>
       <c r="C690" t="s">
         <v>28</v>
@@ -61872,46 +61872,46 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F690" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G690" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="K690">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L690">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M690">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N690">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O690">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P690">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q690">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R690">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S690">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T690">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U690">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V690">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W690">
         <v>0</v>
@@ -61934,7 +61934,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>7777542</v>
+        <v>7847671</v>
       </c>
       <c r="C691" t="s">
         <v>28</v>
@@ -61946,46 +61946,46 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F691" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G691" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K691">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L691">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M691">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N691">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O691">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P691">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q691">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R691">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S691">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T691">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U691">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V691">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W691">
         <v>0</v>

--- a/England League 2/England League 2.xlsx
+++ b/England League 2/England League 2.xlsx
@@ -4854,7 +4854,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6807017</v>
+        <v>6807018</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -4863,76 +4863,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J51">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K51">
         <v>3.4</v>
       </c>
       <c r="L51">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="N51">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q51">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R51">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S51">
         <v>2.5</v>
       </c>
       <c r="T51">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y51">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -5370,7 +5370,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6807018</v>
+        <v>6807017</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -5379,76 +5379,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J57">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="K57">
         <v>3.4</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M57">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="N57">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O57">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P57">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S57">
         <v>2.5</v>
       </c>
       <c r="T57">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -6058,7 +6058,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6807767</v>
+        <v>6807885</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6067,73 +6067,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G65">
         <v>3</v>
       </c>
       <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>54</v>
+      </c>
+      <c r="J65">
+        <v>2.875</v>
+      </c>
+      <c r="K65">
+        <v>3.4</v>
+      </c>
+      <c r="L65">
+        <v>2.375</v>
+      </c>
+      <c r="M65">
         <v>3</v>
       </c>
-      <c r="I65" t="s">
-        <v>55</v>
-      </c>
-      <c r="J65">
-        <v>1.533</v>
-      </c>
-      <c r="K65">
-        <v>4</v>
-      </c>
-      <c r="L65">
-        <v>6</v>
-      </c>
-      <c r="M65">
-        <v>1.45</v>
-      </c>
       <c r="N65">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O65">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="P65">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q65">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T65">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z65">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
         <v>-1</v>
@@ -6144,7 +6144,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6807885</v>
+        <v>6807886</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6153,76 +6153,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J66">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="K66">
         <v>3.4</v>
       </c>
       <c r="L66">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="N66">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O66">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="P66">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q66">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S66">
         <v>2.75</v>
       </c>
       <c r="T66">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6230,7 +6230,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6807886</v>
+        <v>6807887</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6239,49 +6239,49 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J67">
         <v>2.1</v>
       </c>
       <c r="K67">
+        <v>3.3</v>
+      </c>
+      <c r="L67">
+        <v>3.5</v>
+      </c>
+      <c r="M67">
+        <v>2.1</v>
+      </c>
+      <c r="N67">
         <v>3.4</v>
       </c>
-      <c r="L67">
-        <v>3.4</v>
-      </c>
-      <c r="M67">
-        <v>1.7</v>
-      </c>
-      <c r="N67">
-        <v>3.8</v>
-      </c>
       <c r="O67">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q67">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R67">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T67">
         <v>2.025</v>
@@ -6293,16 +6293,16 @@
         <v>-1</v>
       </c>
       <c r="W67">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA67">
         <v>-1</v>
@@ -6316,7 +6316,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6807887</v>
+        <v>6807888</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -6325,19 +6325,19 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
       <c r="I68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J68">
         <v>2.1</v>
@@ -6367,34 +6367,34 @@
         <v>2.05</v>
       </c>
       <c r="S68">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T68">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V68">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6402,7 +6402,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6807888</v>
+        <v>6807019</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6411,10 +6411,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6426,43 +6426,43 @@
         <v>54</v>
       </c>
       <c r="J69">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="K69">
         <v>3.3</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M69">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N69">
         <v>3.4</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="P69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q69">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R69">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T69">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6471,7 +6471,7 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z69">
         <v>-1</v>
@@ -6480,7 +6480,7 @@
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6488,7 +6488,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6807019</v>
+        <v>6807020</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -6497,49 +6497,49 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
         <v>54</v>
       </c>
       <c r="J70">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="K70">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L70">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
+        <v>1.6</v>
+      </c>
+      <c r="N70">
+        <v>4.333</v>
+      </c>
+      <c r="O70">
+        <v>5.25</v>
+      </c>
+      <c r="P70">
+        <v>-1</v>
+      </c>
+      <c r="Q70">
+        <v>1.975</v>
+      </c>
+      <c r="R70">
+        <v>1.875</v>
+      </c>
+      <c r="S70">
         <v>3</v>
-      </c>
-      <c r="N70">
-        <v>3.4</v>
-      </c>
-      <c r="O70">
-        <v>2.375</v>
-      </c>
-      <c r="P70">
-        <v>0.25</v>
-      </c>
-      <c r="Q70">
-        <v>1.825</v>
-      </c>
-      <c r="R70">
-        <v>2.025</v>
-      </c>
-      <c r="S70">
-        <v>2.5</v>
       </c>
       <c r="T70">
         <v>1.925</v>
@@ -6548,7 +6548,7 @@
         <v>1.925</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6557,16 +6557,16 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6574,7 +6574,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6807020</v>
+        <v>6807763</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -6583,76 +6583,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J71">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="K71">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L71">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="M71">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N71">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O71">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="P71">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R71">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T71">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6660,7 +6660,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6807763</v>
+        <v>6807767</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
@@ -6669,76 +6669,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I72" t="s">
         <v>55</v>
       </c>
       <c r="J72">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="K72">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L72">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="M72">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="N72">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O72">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="P72">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q72">
+        <v>2.05</v>
+      </c>
+      <c r="R72">
+        <v>1.8</v>
+      </c>
+      <c r="S72">
+        <v>2.5</v>
+      </c>
+      <c r="T72">
         <v>1.85</v>
       </c>
-      <c r="R72">
-        <v>2</v>
-      </c>
-      <c r="S72">
-        <v>2.75</v>
-      </c>
-      <c r="T72">
-        <v>1.95</v>
-      </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V72">
         <v>-1</v>
       </c>
       <c r="W72">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -7864,7 +7864,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6807895</v>
+        <v>6807024</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -7873,73 +7873,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G86">
         <v>2</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J86">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="K86">
+        <v>3.5</v>
+      </c>
+      <c r="L86">
+        <v>4.5</v>
+      </c>
+      <c r="M86">
+        <v>1.8</v>
+      </c>
+      <c r="N86">
         <v>3.6</v>
       </c>
-      <c r="L86">
-        <v>4.2</v>
-      </c>
-      <c r="M86">
-        <v>1.75</v>
-      </c>
-      <c r="N86">
-        <v>3.8</v>
-      </c>
       <c r="O86">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P86">
         <v>-0.75</v>
       </c>
       <c r="Q86">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T86">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W86">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z86">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
         <v>-1</v>
@@ -7950,7 +7950,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6808927</v>
+        <v>6807895</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
@@ -7959,76 +7959,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J87">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L87">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="N87">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O87">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q87">
+        <v>2.05</v>
+      </c>
+      <c r="R87">
+        <v>1.8</v>
+      </c>
+      <c r="S87">
+        <v>2.5</v>
+      </c>
+      <c r="T87">
+        <v>1.825</v>
+      </c>
+      <c r="U87">
         <v>2.025</v>
       </c>
-      <c r="R87">
-        <v>1.825</v>
-      </c>
-      <c r="S87">
-        <v>2.75</v>
-      </c>
-      <c r="T87">
-        <v>1.8</v>
-      </c>
-      <c r="U87">
-        <v>2.05</v>
-      </c>
       <c r="V87">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8036,7 +8036,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6920706</v>
+        <v>6808927</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8045,76 +8045,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J88">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="K88">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L88">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M88">
+        <v>1.6</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88">
+        <v>5.25</v>
+      </c>
+      <c r="P88">
+        <v>-1</v>
+      </c>
+      <c r="Q88">
+        <v>2.025</v>
+      </c>
+      <c r="R88">
+        <v>1.825</v>
+      </c>
+      <c r="S88">
+        <v>2.75</v>
+      </c>
+      <c r="T88">
+        <v>1.8</v>
+      </c>
+      <c r="U88">
         <v>2.05</v>
       </c>
-      <c r="N88">
-        <v>3.4</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
-      <c r="P88">
+      <c r="V88">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>1.025</v>
+      </c>
+      <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
+        <v>0.4</v>
+      </c>
+      <c r="AB88">
         <v>-0.5</v>
-      </c>
-      <c r="Q88">
-        <v>2.05</v>
-      </c>
-      <c r="R88">
-        <v>1.8</v>
-      </c>
-      <c r="S88">
-        <v>2.25</v>
-      </c>
-      <c r="T88">
-        <v>1.85</v>
-      </c>
-      <c r="U88">
-        <v>2</v>
-      </c>
-      <c r="V88">
-        <v>-1</v>
-      </c>
-      <c r="W88">
-        <v>2.4</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
-      <c r="Z88">
-        <v>0.8</v>
-      </c>
-      <c r="AA88">
-        <v>-0.5</v>
-      </c>
-      <c r="AB88">
-        <v>0.5</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8208,7 +8208,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6807774</v>
+        <v>6920706</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
@@ -8217,76 +8217,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J90">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K90">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M90">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="N90">
         <v>3.4</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q90">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T90">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V90">
         <v>-1</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8294,7 +8294,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6807773</v>
+        <v>6807774</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -8303,73 +8303,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J91">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K91">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L91">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="N91">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P91">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q91">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S91">
         <v>2.5</v>
       </c>
       <c r="T91">
+        <v>1.975</v>
+      </c>
+      <c r="U91">
         <v>1.875</v>
       </c>
-      <c r="U91">
-        <v>1.975</v>
-      </c>
       <c r="V91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB91">
         <v>-1</v>
@@ -8380,7 +8380,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6807772</v>
+        <v>6807773</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8389,76 +8389,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J92">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="K92">
+        <v>3.3</v>
+      </c>
+      <c r="L92">
+        <v>2.8</v>
+      </c>
+      <c r="M92">
+        <v>1.95</v>
+      </c>
+      <c r="N92">
         <v>3.6</v>
       </c>
-      <c r="L92">
-        <v>4.333</v>
-      </c>
-      <c r="M92">
-        <v>1.8</v>
-      </c>
-      <c r="N92">
-        <v>3.5</v>
-      </c>
       <c r="O92">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q92">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U92">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W92">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB92">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8466,7 +8466,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6807024</v>
+        <v>6807772</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -8475,34 +8475,34 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J93">
         <v>1.8</v>
       </c>
       <c r="K93">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L93">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M93">
         <v>1.8</v>
       </c>
       <c r="N93">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O93">
         <v>4.75</v>
@@ -8511,40 +8511,40 @@
         <v>-0.75</v>
       </c>
       <c r="Q93">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
         <v>2.25</v>
       </c>
       <c r="T93">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U93">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V93">
+        <v>-1</v>
+      </c>
+      <c r="W93">
+        <v>2.5</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
         <v>0.8</v>
       </c>
-      <c r="W93">
-        <v>-1</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>0.5</v>
-      </c>
-      <c r="Z93">
+      <c r="AA93">
         <v>-0.5</v>
       </c>
-      <c r="AA93">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -11476,7 +11476,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6807911</v>
+        <v>6807907</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -11485,76 +11485,76 @@
         <v>45202.65625</v>
       </c>
       <c r="E128" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J128">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="K128">
         <v>3.4</v>
       </c>
       <c r="L128">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N128">
         <v>3.3</v>
       </c>
       <c r="O128">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="P128">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q128">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S128">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T128">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W128">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB128">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11562,7 +11562,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6807907</v>
+        <v>6807911</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -11571,76 +11571,76 @@
         <v>45202.65625</v>
       </c>
       <c r="E129" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F129" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J129">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="K129">
         <v>3.4</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="M129">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="N129">
         <v>3.3</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="P129">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R129">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -14830,7 +14830,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6807808</v>
+        <v>6807809</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
@@ -14839,76 +14839,76 @@
         <v>45223.65625</v>
       </c>
       <c r="E167" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F167" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J167">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="K167">
         <v>3.4</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M167">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="N167">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O167">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P167">
+        <v>-0.25</v>
+      </c>
+      <c r="Q167">
+        <v>1.9</v>
+      </c>
+      <c r="R167">
+        <v>1.95</v>
+      </c>
+      <c r="S167">
+        <v>2.75</v>
+      </c>
+      <c r="T167">
+        <v>1.975</v>
+      </c>
+      <c r="U167">
+        <v>1.875</v>
+      </c>
+      <c r="V167">
+        <v>-1</v>
+      </c>
+      <c r="W167">
+        <v>2.4</v>
+      </c>
+      <c r="X167">
+        <v>-1</v>
+      </c>
+      <c r="Y167">
         <v>-0.5</v>
       </c>
-      <c r="Q167">
-        <v>1.85</v>
-      </c>
-      <c r="R167">
-        <v>2</v>
-      </c>
-      <c r="S167">
-        <v>2.5</v>
-      </c>
-      <c r="T167">
-        <v>1.85</v>
-      </c>
-      <c r="U167">
-        <v>2</v>
-      </c>
-      <c r="V167">
-        <v>-1</v>
-      </c>
-      <c r="W167">
-        <v>-1</v>
-      </c>
-      <c r="X167">
-        <v>3.5</v>
-      </c>
-      <c r="Y167">
-        <v>-1</v>
-      </c>
       <c r="Z167">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="168" spans="1:28">
@@ -14916,7 +14916,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6807927</v>
+        <v>6807808</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -14925,40 +14925,40 @@
         <v>45223.65625</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F168" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I168" t="s">
         <v>56</v>
       </c>
       <c r="J168">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="K168">
         <v>3.4</v>
       </c>
       <c r="L168">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="N168">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O168">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P168">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q168">
         <v>1.85</v>
@@ -14982,7 +14982,7 @@
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y168">
         <v>-1</v>
@@ -14991,10 +14991,10 @@
         <v>1</v>
       </c>
       <c r="AA168">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:28">
@@ -15002,7 +15002,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6807809</v>
+        <v>6807927</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
@@ -15011,19 +15011,19 @@
         <v>45223.65625</v>
       </c>
       <c r="E169" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J169">
         <v>2.1</v>
@@ -15035,52 +15035,52 @@
         <v>3.4</v>
       </c>
       <c r="M169">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N169">
         <v>3.4</v>
       </c>
       <c r="O169">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P169">
         <v>-0.25</v>
       </c>
       <c r="Q169">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R169">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S169">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T169">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U169">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V169">
         <v>-1</v>
       </c>
       <c r="W169">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB169">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -15088,7 +15088,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6808920</v>
+        <v>6807928</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -15097,13 +15097,13 @@
         <v>45223.65625</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15112,44 +15112,44 @@
         <v>54</v>
       </c>
       <c r="J170">
+        <v>2.3</v>
+      </c>
+      <c r="K170">
+        <v>3.4</v>
+      </c>
+      <c r="L170">
+        <v>3</v>
+      </c>
+      <c r="M170">
+        <v>2.4</v>
+      </c>
+      <c r="N170">
+        <v>3.3</v>
+      </c>
+      <c r="O170">
+        <v>3</v>
+      </c>
+      <c r="P170">
+        <v>-0.25</v>
+      </c>
+      <c r="Q170">
+        <v>2</v>
+      </c>
+      <c r="R170">
+        <v>1.85</v>
+      </c>
+      <c r="S170">
+        <v>2.25</v>
+      </c>
+      <c r="T170">
+        <v>1.75</v>
+      </c>
+      <c r="U170">
+        <v>2.125</v>
+      </c>
+      <c r="V170">
         <v>1.4</v>
       </c>
-      <c r="K170">
-        <v>4.75</v>
-      </c>
-      <c r="L170">
-        <v>7</v>
-      </c>
-      <c r="M170">
-        <v>1.363</v>
-      </c>
-      <c r="N170">
-        <v>5.75</v>
-      </c>
-      <c r="O170">
-        <v>7</v>
-      </c>
-      <c r="P170">
-        <v>-1.5</v>
-      </c>
-      <c r="Q170">
-        <v>1.95</v>
-      </c>
-      <c r="R170">
-        <v>1.9</v>
-      </c>
-      <c r="S170">
-        <v>3.25</v>
-      </c>
-      <c r="T170">
-        <v>1.925</v>
-      </c>
-      <c r="U170">
-        <v>1.925</v>
-      </c>
-      <c r="V170">
-        <v>0.363</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
@@ -15157,16 +15157,16 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z170">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB170">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15174,7 +15174,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6807807</v>
+        <v>6808920</v>
       </c>
       <c r="C171" t="s">
         <v>29</v>
@@ -15183,58 +15183,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="s">
         <v>54</v>
       </c>
       <c r="J171">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="K171">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="L171">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="M171">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="N171">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="O171">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="P171">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q171">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S171">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T171">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U171">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>0.6659999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15243,16 +15243,16 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA171">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15260,7 +15260,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6807928</v>
+        <v>6807807</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -15269,58 +15269,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F172" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="s">
         <v>54</v>
       </c>
       <c r="J172">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="K172">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L172">
+        <v>4.75</v>
+      </c>
+      <c r="M172">
+        <v>1.666</v>
+      </c>
+      <c r="N172">
+        <v>4</v>
+      </c>
+      <c r="O172">
+        <v>4.75</v>
+      </c>
+      <c r="P172">
+        <v>-0.75</v>
+      </c>
+      <c r="Q172">
+        <v>1.85</v>
+      </c>
+      <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
         <v>3</v>
       </c>
-      <c r="M172">
-        <v>2.4</v>
-      </c>
-      <c r="N172">
-        <v>3.3</v>
-      </c>
-      <c r="O172">
-        <v>3</v>
-      </c>
-      <c r="P172">
-        <v>-0.25</v>
-      </c>
-      <c r="Q172">
-        <v>2</v>
-      </c>
-      <c r="R172">
-        <v>1.85</v>
-      </c>
-      <c r="S172">
-        <v>2.25</v>
-      </c>
       <c r="T172">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U172">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="V172">
-        <v>1.4</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15329,16 +15329,16 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -27128,7 +27128,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6807857</v>
+        <v>6807856</v>
       </c>
       <c r="C310" t="s">
         <v>29</v>
@@ -27137,25 +27137,25 @@
         <v>45304.5</v>
       </c>
       <c r="E310" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F310" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G310">
         <v>0</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="s">
         <v>56</v>
       </c>
       <c r="J310">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K310">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L310">
         <v>3</v>
@@ -27167,26 +27167,26 @@
         <v>3.5</v>
       </c>
       <c r="O310">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P310">
         <v>-0.25</v>
       </c>
       <c r="Q310">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R310">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S310">
         <v>2.5</v>
       </c>
       <c r="T310">
+        <v>1.975</v>
+      </c>
+      <c r="U310">
         <v>1.875</v>
       </c>
-      <c r="U310">
-        <v>1.975</v>
-      </c>
       <c r="V310">
         <v>-1</v>
       </c>
@@ -27194,19 +27194,19 @@
         <v>-1</v>
       </c>
       <c r="X310">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA310">
         <v>-1</v>
       </c>
       <c r="AB310">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="311" spans="1:28">
@@ -27214,7 +27214,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6807856</v>
+        <v>6807857</v>
       </c>
       <c r="C311" t="s">
         <v>29</v>
@@ -27223,25 +27223,25 @@
         <v>45304.5</v>
       </c>
       <c r="E311" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F311" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G311">
         <v>0</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" t="s">
         <v>56</v>
       </c>
       <c r="J311">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K311">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L311">
         <v>3</v>
@@ -27253,26 +27253,26 @@
         <v>3.5</v>
       </c>
       <c r="O311">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P311">
         <v>-0.25</v>
       </c>
       <c r="Q311">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R311">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S311">
         <v>2.5</v>
       </c>
       <c r="T311">
+        <v>1.875</v>
+      </c>
+      <c r="U311">
         <v>1.975</v>
       </c>
-      <c r="U311">
-        <v>1.875</v>
-      </c>
       <c r="V311">
         <v>-1</v>
       </c>
@@ -27280,19 +27280,19 @@
         <v>-1</v>
       </c>
       <c r="X311">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA311">
         <v>-1</v>
       </c>
       <c r="AB311">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="312" spans="1:28">
@@ -36416,7 +36416,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>7847672</v>
+        <v>7735480</v>
       </c>
       <c r="C418" t="s">
         <v>29</v>
@@ -36425,61 +36425,61 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E418" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F418" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="s">
         <v>55</v>
       </c>
       <c r="J418">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="K418">
         <v>3.75</v>
       </c>
       <c r="L418">
+        <v>4.5</v>
+      </c>
+      <c r="M418">
+        <v>1.727</v>
+      </c>
+      <c r="N418">
+        <v>3.75</v>
+      </c>
+      <c r="O418">
         <v>5</v>
       </c>
-      <c r="M418">
+      <c r="P418">
+        <v>-0.75</v>
+      </c>
+      <c r="Q418">
+        <v>2.025</v>
+      </c>
+      <c r="R418">
+        <v>1.825</v>
+      </c>
+      <c r="S418">
+        <v>2.5</v>
+      </c>
+      <c r="T418">
+        <v>1.9</v>
+      </c>
+      <c r="U418">
         <v>1.95</v>
       </c>
-      <c r="N418">
-        <v>3.3</v>
-      </c>
-      <c r="O418">
-        <v>4</v>
-      </c>
-      <c r="P418">
-        <v>-0.5</v>
-      </c>
-      <c r="Q418">
-        <v>2</v>
-      </c>
-      <c r="R418">
-        <v>1.85</v>
-      </c>
-      <c r="S418">
-        <v>2.25</v>
-      </c>
-      <c r="T418">
-        <v>2.025</v>
-      </c>
-      <c r="U418">
-        <v>1.825</v>
-      </c>
       <c r="V418">
         <v>-1</v>
       </c>
       <c r="W418">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="X418">
         <v>-1</v>
@@ -36488,13 +36488,13 @@
         <v>-1</v>
       </c>
       <c r="Z418">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA418">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB418">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="419" spans="1:28">
@@ -36588,7 +36588,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7735480</v>
+        <v>7689212</v>
       </c>
       <c r="C420" t="s">
         <v>29</v>
@@ -36597,76 +36597,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E420" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F420" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H420">
         <v>0</v>
       </c>
       <c r="I420" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J420">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="K420">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L420">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M420">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="N420">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O420">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P420">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q420">
+        <v>2</v>
+      </c>
+      <c r="R420">
+        <v>1.85</v>
+      </c>
+      <c r="S420">
+        <v>2.75</v>
+      </c>
+      <c r="T420">
         <v>2.025</v>
       </c>
-      <c r="R420">
+      <c r="U420">
         <v>1.825</v>
       </c>
-      <c r="S420">
-        <v>2.5</v>
-      </c>
-      <c r="T420">
-        <v>1.9</v>
-      </c>
-      <c r="U420">
-        <v>1.95</v>
-      </c>
       <c r="V420">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W420">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X420">
         <v>-1</v>
       </c>
       <c r="Y420">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z420">
+        <v>-1</v>
+      </c>
+      <c r="AA420">
+        <v>-1</v>
+      </c>
+      <c r="AB420">
         <v>0.825</v>
-      </c>
-      <c r="AA420">
-        <v>-1</v>
-      </c>
-      <c r="AB420">
-        <v>0.95</v>
       </c>
     </row>
     <row r="421" spans="1:28">
@@ -36674,7 +36674,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7689212</v>
+        <v>7691333</v>
       </c>
       <c r="C421" t="s">
         <v>29</v>
@@ -36683,76 +36683,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E421" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F421" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G421">
         <v>1</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J421">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K421">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L421">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M421">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="N421">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O421">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P421">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q421">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R421">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S421">
         <v>2.75</v>
       </c>
       <c r="T421">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U421">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V421">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W421">
         <v>-1</v>
       </c>
       <c r="X421">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y421">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z421">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA421">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB421">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="422" spans="1:28">
@@ -36760,7 +36760,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7691333</v>
+        <v>7847672</v>
       </c>
       <c r="C422" t="s">
         <v>29</v>
@@ -36769,76 +36769,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E422" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F422" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G422">
         <v>1</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J422">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="K422">
         <v>3.75</v>
       </c>
       <c r="L422">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M422">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="N422">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O422">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P422">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q422">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R422">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S422">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T422">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U422">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V422">
         <v>-1</v>
       </c>
       <c r="W422">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X422">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA422">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB422">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="423" spans="1:28">
@@ -36846,7 +36846,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7235458</v>
+        <v>7222434</v>
       </c>
       <c r="C423" t="s">
         <v>29</v>
@@ -36855,76 +36855,76 @@
         <v>45360.5</v>
       </c>
       <c r="E423" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F423" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G423">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H423">
         <v>1</v>
       </c>
       <c r="I423" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J423">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="K423">
         <v>3.6</v>
       </c>
       <c r="L423">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="M423">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="N423">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O423">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P423">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q423">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R423">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S423">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T423">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U423">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V423">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W423">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z423">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA423">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB423">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="424" spans="1:28">
@@ -36932,7 +36932,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7222434</v>
+        <v>7235458</v>
       </c>
       <c r="C424" t="s">
         <v>29</v>
@@ -36941,76 +36941,76 @@
         <v>45360.5</v>
       </c>
       <c r="E424" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F424" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G424">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H424">
         <v>1</v>
       </c>
       <c r="I424" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J424">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="K424">
         <v>3.6</v>
       </c>
       <c r="L424">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="M424">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N424">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O424">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P424">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q424">
+        <v>2</v>
+      </c>
+      <c r="R424">
+        <v>1.85</v>
+      </c>
+      <c r="S424">
+        <v>3.25</v>
+      </c>
+      <c r="T424">
+        <v>2.05</v>
+      </c>
+      <c r="U424">
         <v>1.8</v>
       </c>
-      <c r="R424">
-        <v>2.05</v>
-      </c>
-      <c r="S424">
-        <v>2.5</v>
-      </c>
-      <c r="T424">
-        <v>1.875</v>
-      </c>
-      <c r="U424">
-        <v>1.975</v>
-      </c>
       <c r="V424">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W424">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z424">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA424">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB424">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:28">
@@ -37018,7 +37018,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7252002</v>
+        <v>7252003</v>
       </c>
       <c r="C425" t="s">
         <v>29</v>
@@ -37027,76 +37027,76 @@
         <v>45360.5</v>
       </c>
       <c r="E425" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F425" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G425">
+        <v>2</v>
+      </c>
+      <c r="H425">
         <v>0</v>
       </c>
-      <c r="H425">
-        <v>3</v>
-      </c>
       <c r="I425" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J425">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="K425">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L425">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="M425">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N425">
         <v>3.6</v>
       </c>
       <c r="O425">
+        <v>2.625</v>
+      </c>
+      <c r="P425">
+        <v>0</v>
+      </c>
+      <c r="Q425">
         <v>1.85</v>
       </c>
-      <c r="P425">
-        <v>0.5</v>
-      </c>
-      <c r="Q425">
-        <v>1.925</v>
-      </c>
       <c r="R425">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S425">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T425">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U425">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V425">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W425">
         <v>-1</v>
       </c>
       <c r="X425">
+        <v>-1</v>
+      </c>
+      <c r="Y425">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Y425">
-        <v>-1</v>
-      </c>
       <c r="Z425">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA425">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB425">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="426" spans="1:28">
@@ -37104,7 +37104,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7252003</v>
+        <v>7252006</v>
       </c>
       <c r="C426" t="s">
         <v>29</v>
@@ -37113,49 +37113,49 @@
         <v>45360.5</v>
       </c>
       <c r="E426" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F426" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G426">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J426">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="K426">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L426">
+        <v>2.7</v>
+      </c>
+      <c r="M426">
+        <v>2.9</v>
+      </c>
+      <c r="N426">
+        <v>3.5</v>
+      </c>
+      <c r="O426">
+        <v>2.3</v>
+      </c>
+      <c r="P426">
+        <v>0.25</v>
+      </c>
+      <c r="Q426">
+        <v>1.8</v>
+      </c>
+      <c r="R426">
+        <v>2.05</v>
+      </c>
+      <c r="S426">
         <v>2.75</v>
-      </c>
-      <c r="M426">
-        <v>2.45</v>
-      </c>
-      <c r="N426">
-        <v>3.6</v>
-      </c>
-      <c r="O426">
-        <v>2.625</v>
-      </c>
-      <c r="P426">
-        <v>0</v>
-      </c>
-      <c r="Q426">
-        <v>1.85</v>
-      </c>
-      <c r="R426">
-        <v>2</v>
-      </c>
-      <c r="S426">
-        <v>2.5</v>
       </c>
       <c r="T426">
         <v>1.975</v>
@@ -37164,25 +37164,25 @@
         <v>1.875</v>
       </c>
       <c r="V426">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W426">
         <v>-1</v>
       </c>
       <c r="X426">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y426">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z426">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA426">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB426">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="427" spans="1:28">
@@ -37190,7 +37190,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7252006</v>
+        <v>7252005</v>
       </c>
       <c r="C427" t="s">
         <v>29</v>
@@ -37199,76 +37199,76 @@
         <v>45360.5</v>
       </c>
       <c r="E427" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F427" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G427">
         <v>1</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J427">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K427">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L427">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="M427">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N427">
         <v>3.5</v>
       </c>
       <c r="O427">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="P427">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q427">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R427">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S427">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T427">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U427">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V427">
         <v>-1</v>
       </c>
       <c r="W427">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X427">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y427">
         <v>-1</v>
       </c>
       <c r="Z427">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA427">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB427">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="428" spans="1:28">
@@ -37276,7 +37276,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>7252005</v>
+        <v>7252004</v>
       </c>
       <c r="C428" t="s">
         <v>29</v>
@@ -37285,76 +37285,76 @@
         <v>45360.5</v>
       </c>
       <c r="E428" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F428" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G428">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J428">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="K428">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L428">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="M428">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N428">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O428">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="P428">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q428">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R428">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S428">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T428">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U428">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V428">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W428">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X428">
         <v>-1</v>
       </c>
       <c r="Y428">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z428">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA428">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB428">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="429" spans="1:28">
@@ -37362,7 +37362,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>7252004</v>
+        <v>7252002</v>
       </c>
       <c r="C429" t="s">
         <v>29</v>
@@ -37371,76 +37371,76 @@
         <v>45360.5</v>
       </c>
       <c r="E429" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F429" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G429">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I429" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J429">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="K429">
         <v>3.4</v>
       </c>
       <c r="L429">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="M429">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N429">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O429">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="P429">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q429">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R429">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S429">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T429">
+        <v>1.8</v>
+      </c>
+      <c r="U429">
         <v>2.05</v>
       </c>
-      <c r="U429">
-        <v>1.8</v>
-      </c>
       <c r="V429">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="W429">
         <v>-1</v>
       </c>
       <c r="X429">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y429">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z429">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA429">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB429">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="430" spans="1:28">
@@ -37448,7 +37448,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>7252009</v>
+        <v>7252007</v>
       </c>
       <c r="C430" t="s">
         <v>29</v>
@@ -37457,40 +37457,40 @@
         <v>45360.5</v>
       </c>
       <c r="E430" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F430" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G430">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H430">
         <v>2</v>
       </c>
       <c r="I430" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J430">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="K430">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L430">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="M430">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="N430">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O430">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="P430">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q430">
         <v>1.975</v>
@@ -37499,34 +37499,34 @@
         <v>1.875</v>
       </c>
       <c r="S430">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T430">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U430">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V430">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W430">
         <v>-1</v>
       </c>
       <c r="X430">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y430">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z430">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA430">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB430">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431" spans="1:28">
@@ -37534,7 +37534,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>7252007</v>
+        <v>7252009</v>
       </c>
       <c r="C431" t="s">
         <v>29</v>
@@ -37543,40 +37543,40 @@
         <v>45360.5</v>
       </c>
       <c r="E431" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F431" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G431">
+        <v>0</v>
+      </c>
+      <c r="H431">
+        <v>2</v>
+      </c>
+      <c r="I431" t="s">
+        <v>56</v>
+      </c>
+      <c r="J431">
+        <v>2.2</v>
+      </c>
+      <c r="K431">
+        <v>3.6</v>
+      </c>
+      <c r="L431">
         <v>3</v>
       </c>
-      <c r="H431">
-        <v>2</v>
-      </c>
-      <c r="I431" t="s">
-        <v>54</v>
-      </c>
-      <c r="J431">
-        <v>1.5</v>
-      </c>
-      <c r="K431">
-        <v>4.2</v>
-      </c>
-      <c r="L431">
-        <v>6.5</v>
-      </c>
       <c r="M431">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="N431">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O431">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="P431">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q431">
         <v>1.975</v>
@@ -37585,34 +37585,34 @@
         <v>1.875</v>
       </c>
       <c r="S431">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T431">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U431">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V431">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W431">
         <v>-1</v>
       </c>
       <c r="X431">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y431">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z431">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA431">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB431">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="432" spans="1:28">
@@ -43382,7 +43382,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>7400930</v>
+        <v>7385955</v>
       </c>
       <c r="C499" t="s">
         <v>29</v>
@@ -43391,76 +43391,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E499" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F499" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G499">
+        <v>1</v>
+      </c>
+      <c r="H499">
         <v>0</v>
       </c>
-      <c r="H499">
-        <v>2</v>
-      </c>
       <c r="I499" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J499">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="K499">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L499">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M499">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="N499">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O499">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P499">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q499">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="R499">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S499">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T499">
+        <v>1.975</v>
+      </c>
+      <c r="U499">
         <v>1.875</v>
       </c>
-      <c r="U499">
-        <v>1.975</v>
-      </c>
       <c r="V499">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W499">
         <v>-1</v>
       </c>
       <c r="X499">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y499">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z499">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA499">
         <v>-1</v>
       </c>
       <c r="AB499">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="500" spans="1:28">
@@ -43812,7 +43812,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>7385955</v>
+        <v>7400930</v>
       </c>
       <c r="C504" t="s">
         <v>29</v>
@@ -43821,76 +43821,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E504" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F504" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J504">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K504">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L504">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M504">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="N504">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O504">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P504">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q504">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="R504">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S504">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T504">
+        <v>1.875</v>
+      </c>
+      <c r="U504">
         <v>1.975</v>
       </c>
-      <c r="U504">
-        <v>1.875</v>
-      </c>
       <c r="V504">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W504">
         <v>-1</v>
       </c>
       <c r="X504">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y504">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z504">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA504">
         <v>-1</v>
       </c>
       <c r="AB504">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="505" spans="1:28">
@@ -44242,7 +44242,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>7753036</v>
+        <v>7929878</v>
       </c>
       <c r="C509" t="s">
         <v>29</v>
@@ -44251,76 +44251,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E509" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F509" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G509">
         <v>1</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J509">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="K509">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L509">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="M509">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="N509">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O509">
-        <v>9</v>
+        <v>1.95</v>
       </c>
       <c r="P509">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q509">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R509">
+        <v>1.975</v>
+      </c>
+      <c r="S509">
+        <v>2.5</v>
+      </c>
+      <c r="T509">
+        <v>2</v>
+      </c>
+      <c r="U509">
         <v>1.85</v>
       </c>
-      <c r="S509">
-        <v>3</v>
-      </c>
-      <c r="T509">
-        <v>1.95</v>
-      </c>
-      <c r="U509">
-        <v>1.9</v>
-      </c>
       <c r="V509">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W509">
         <v>-1</v>
       </c>
       <c r="X509">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y509">
         <v>-1</v>
       </c>
       <c r="Z509">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA509">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB509">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510" spans="1:28">
@@ -44328,7 +44328,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>7929878</v>
+        <v>7753036</v>
       </c>
       <c r="C510" t="s">
         <v>29</v>
@@ -44337,76 +44337,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E510" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F510" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G510">
         <v>1</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J510">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="K510">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L510">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="M510">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="N510">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O510">
+        <v>9</v>
+      </c>
+      <c r="P510">
+        <v>-1.5</v>
+      </c>
+      <c r="Q510">
+        <v>2</v>
+      </c>
+      <c r="R510">
+        <v>1.85</v>
+      </c>
+      <c r="S510">
+        <v>3</v>
+      </c>
+      <c r="T510">
         <v>1.95</v>
       </c>
-      <c r="P510">
-        <v>0.5</v>
-      </c>
-      <c r="Q510">
-        <v>1.875</v>
-      </c>
-      <c r="R510">
-        <v>1.975</v>
-      </c>
-      <c r="S510">
-        <v>2.5</v>
-      </c>
-      <c r="T510">
-        <v>2</v>
-      </c>
       <c r="U510">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V510">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W510">
         <v>-1</v>
       </c>
       <c r="X510">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y510">
         <v>-1</v>
       </c>
       <c r="Z510">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA510">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB510">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="511" spans="1:28">
@@ -45532,7 +45532,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>8048202</v>
+        <v>7962569</v>
       </c>
       <c r="C524" t="s">
         <v>29</v>
@@ -45541,10 +45541,10 @@
         <v>45398.65625</v>
       </c>
       <c r="E524" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F524" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G524">
         <v>2</v>
@@ -45556,34 +45556,34 @@
         <v>54</v>
       </c>
       <c r="J524">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="K524">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="L524">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="M524">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="N524">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O524">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="P524">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q524">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R524">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S524">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T524">
         <v>1.925</v>
@@ -45592,7 +45592,7 @@
         <v>1.925</v>
       </c>
       <c r="V524">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="W524">
         <v>-1</v>
@@ -45601,16 +45601,16 @@
         <v>-1</v>
       </c>
       <c r="Y524">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z524">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA524">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB524">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:28">
@@ -45618,7 +45618,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>7962569</v>
+        <v>7844097</v>
       </c>
       <c r="C525" t="s">
         <v>29</v>
@@ -45627,40 +45627,40 @@
         <v>45398.65625</v>
       </c>
       <c r="E525" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F525" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G525">
         <v>2</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="s">
         <v>54</v>
       </c>
       <c r="J525">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="K525">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L525">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M525">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N525">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O525">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P525">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q525">
         <v>1.925</v>
@@ -45669,16 +45669,16 @@
         <v>1.925</v>
       </c>
       <c r="S525">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T525">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U525">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V525">
-        <v>0.909</v>
+        <v>1.2</v>
       </c>
       <c r="W525">
         <v>-1</v>
@@ -45693,10 +45693,10 @@
         <v>-1</v>
       </c>
       <c r="AA525">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB525">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="526" spans="1:28">
@@ -45790,7 +45790,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>7844097</v>
+        <v>8048202</v>
       </c>
       <c r="C527" t="s">
         <v>29</v>
@@ -45799,58 +45799,58 @@
         <v>45398.65625</v>
       </c>
       <c r="E527" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F527" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G527">
         <v>2</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I527" t="s">
         <v>54</v>
       </c>
       <c r="J527">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="K527">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="L527">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M527">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N527">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="O527">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P527">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q527">
+        <v>1.975</v>
+      </c>
+      <c r="R527">
+        <v>1.875</v>
+      </c>
+      <c r="S527">
+        <v>3.25</v>
+      </c>
+      <c r="T527">
         <v>1.925</v>
       </c>
-      <c r="R527">
+      <c r="U527">
         <v>1.925</v>
       </c>
-      <c r="S527">
-        <v>2.5</v>
-      </c>
-      <c r="T527">
-        <v>1.975</v>
-      </c>
-      <c r="U527">
-        <v>1.875</v>
-      </c>
       <c r="V527">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="W527">
         <v>-1</v>
@@ -45859,16 +45859,16 @@
         <v>-1</v>
       </c>
       <c r="Y527">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z527">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA527">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB527">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="528" spans="1:28">
@@ -47166,7 +47166,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>7433464</v>
+        <v>7451982</v>
       </c>
       <c r="C543" t="s">
         <v>29</v>
@@ -47175,76 +47175,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E543" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F543" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G543">
         <v>2</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I543" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J543">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="K543">
         <v>3.75</v>
       </c>
       <c r="L543">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="M543">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="N543">
         <v>3.8</v>
       </c>
       <c r="O543">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P543">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q543">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R543">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S543">
         <v>3</v>
       </c>
       <c r="T543">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U543">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V543">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W543">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X543">
         <v>-1</v>
       </c>
       <c r="Y543">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z543">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA543">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB543">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:28">
@@ -47252,7 +47252,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>7437053</v>
+        <v>7433464</v>
       </c>
       <c r="C544" t="s">
         <v>29</v>
@@ -47261,46 +47261,46 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E544" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F544" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G544">
         <v>2</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J544">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="K544">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L544">
         <v>4.2</v>
       </c>
       <c r="M544">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="N544">
+        <v>3.8</v>
+      </c>
+      <c r="O544">
         <v>4.5</v>
       </c>
-      <c r="O544">
-        <v>6</v>
-      </c>
       <c r="P544">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q544">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R544">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S544">
         <v>3</v>
@@ -47312,25 +47312,25 @@
         <v>2.025</v>
       </c>
       <c r="V544">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W544">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X544">
         <v>-1</v>
       </c>
       <c r="Y544">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z544">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA544">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB544">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="545" spans="1:28">
@@ -47338,7 +47338,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>7451290</v>
+        <v>7437053</v>
       </c>
       <c r="C545" t="s">
         <v>29</v>
@@ -47347,13 +47347,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E545" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F545" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G545">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H545">
         <v>0</v>
@@ -47362,43 +47362,43 @@
         <v>54</v>
       </c>
       <c r="J545">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="K545">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L545">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="M545">
+        <v>1.5</v>
+      </c>
+      <c r="N545">
+        <v>4.5</v>
+      </c>
+      <c r="O545">
+        <v>6</v>
+      </c>
+      <c r="P545">
+        <v>-1.25</v>
+      </c>
+      <c r="Q545">
+        <v>2.025</v>
+      </c>
+      <c r="R545">
+        <v>1.825</v>
+      </c>
+      <c r="S545">
         <v>3</v>
       </c>
-      <c r="N545">
-        <v>4</v>
-      </c>
-      <c r="O545">
-        <v>2.15</v>
-      </c>
-      <c r="P545">
-        <v>0.25</v>
-      </c>
-      <c r="Q545">
-        <v>1.975</v>
-      </c>
-      <c r="R545">
-        <v>1.875</v>
-      </c>
-      <c r="S545">
-        <v>3.25</v>
-      </c>
       <c r="T545">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U545">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V545">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="W545">
         <v>-1</v>
@@ -47407,7 +47407,7 @@
         <v>-1</v>
       </c>
       <c r="Y545">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z545">
         <v>-1</v>
@@ -47416,7 +47416,7 @@
         <v>-1</v>
       </c>
       <c r="AB545">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="546" spans="1:28">
@@ -47424,7 +47424,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>7466374</v>
+        <v>7451290</v>
       </c>
       <c r="C546" t="s">
         <v>29</v>
@@ -47433,76 +47433,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E546" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F546" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G546">
         <v>1</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J546">
+        <v>2.875</v>
+      </c>
+      <c r="K546">
+        <v>3.75</v>
+      </c>
+      <c r="L546">
+        <v>2.2</v>
+      </c>
+      <c r="M546">
         <v>3</v>
       </c>
-      <c r="K546">
-        <v>2.5</v>
-      </c>
-      <c r="L546">
-        <v>3</v>
-      </c>
-      <c r="M546">
-        <v>2.625</v>
-      </c>
       <c r="N546">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="O546">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="P546">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q546">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R546">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S546">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T546">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U546">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V546">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W546">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X546">
         <v>-1</v>
       </c>
       <c r="Y546">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z546">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA546">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB546">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="547" spans="1:28">
@@ -47510,7 +47510,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>7451291</v>
+        <v>7466374</v>
       </c>
       <c r="C547" t="s">
         <v>29</v>
@@ -47519,76 +47519,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E547" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F547" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G547">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I547" t="s">
         <v>55</v>
       </c>
       <c r="J547">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="K547">
+        <v>2.5</v>
+      </c>
+      <c r="L547">
+        <v>3</v>
+      </c>
+      <c r="M547">
+        <v>2.625</v>
+      </c>
+      <c r="N547">
+        <v>2.625</v>
+      </c>
+      <c r="O547">
         <v>3.4</v>
       </c>
-      <c r="L547">
-        <v>2.6</v>
-      </c>
-      <c r="M547">
-        <v>3</v>
-      </c>
-      <c r="N547">
-        <v>3.6</v>
-      </c>
-      <c r="O547">
-        <v>2.3</v>
-      </c>
       <c r="P547">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q547">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R547">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S547">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T547">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U547">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V547">
         <v>-1</v>
       </c>
       <c r="W547">
-        <v>2.6</v>
+        <v>1.625</v>
       </c>
       <c r="X547">
         <v>-1</v>
       </c>
       <c r="Y547">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="Z547">
+        <v>0</v>
+      </c>
+      <c r="AA547">
         <v>-0.5</v>
       </c>
-      <c r="AA547">
-        <v>0.875</v>
-      </c>
       <c r="AB547">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="548" spans="1:28">
@@ -47596,7 +47596,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>7466376</v>
+        <v>7451291</v>
       </c>
       <c r="C548" t="s">
         <v>29</v>
@@ -47605,73 +47605,73 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E548" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F548" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G548">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H548">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I548" t="s">
         <v>55</v>
       </c>
       <c r="J548">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K548">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L548">
+        <v>2.6</v>
+      </c>
+      <c r="M548">
+        <v>3</v>
+      </c>
+      <c r="N548">
+        <v>3.6</v>
+      </c>
+      <c r="O548">
+        <v>2.3</v>
+      </c>
+      <c r="P548">
+        <v>0.25</v>
+      </c>
+      <c r="Q548">
+        <v>1.825</v>
+      </c>
+      <c r="R548">
+        <v>2.025</v>
+      </c>
+      <c r="S548">
         <v>2.75</v>
       </c>
-      <c r="M548">
-        <v>1.5</v>
-      </c>
-      <c r="N548">
-        <v>4.75</v>
-      </c>
-      <c r="O548">
-        <v>5.5</v>
-      </c>
-      <c r="P548">
-        <v>-1.25</v>
-      </c>
-      <c r="Q548">
-        <v>2.025</v>
-      </c>
-      <c r="R548">
-        <v>1.825</v>
-      </c>
-      <c r="S548">
-        <v>3.25</v>
-      </c>
       <c r="T548">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U548">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V548">
         <v>-1</v>
       </c>
       <c r="W548">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="X548">
         <v>-1</v>
       </c>
       <c r="Y548">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z548">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA548">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB548">
         <v>-1</v>
@@ -47682,7 +47682,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>7451289</v>
+        <v>7466376</v>
       </c>
       <c r="C549" t="s">
         <v>29</v>
@@ -47691,49 +47691,49 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E549" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F549" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G549">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I549" t="s">
         <v>55</v>
       </c>
       <c r="J549">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="K549">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L549">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M549">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N549">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O549">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="P549">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q549">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R549">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S549">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T549">
         <v>1.825</v>
@@ -47745,22 +47745,22 @@
         <v>-1</v>
       </c>
       <c r="W549">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="X549">
         <v>-1</v>
       </c>
       <c r="Y549">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z549">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AA549">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB549">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550" spans="1:28">
@@ -47768,7 +47768,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>7451982</v>
+        <v>7451289</v>
       </c>
       <c r="C550" t="s">
         <v>29</v>
@@ -47777,76 +47777,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E550" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F550" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G550">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H550">
         <v>1</v>
       </c>
       <c r="I550" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J550">
         <v>2.375</v>
       </c>
       <c r="K550">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L550">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="M550">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N550">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O550">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P550">
         <v>-0.25</v>
       </c>
       <c r="Q550">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R550">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S550">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T550">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U550">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V550">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W550">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X550">
         <v>-1</v>
       </c>
       <c r="Y550">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z550">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA550">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB550">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="551" spans="1:28">
@@ -47940,7 +47940,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>7466373</v>
+        <v>7466372</v>
       </c>
       <c r="C552" t="s">
         <v>29</v>
@@ -47949,10 +47949,10 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E552" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F552" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G552">
         <v>4</v>
@@ -47964,43 +47964,43 @@
         <v>54</v>
       </c>
       <c r="J552">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="K552">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L552">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="M552">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="N552">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="O552">
-        <v>11</v>
+        <v>2.625</v>
       </c>
       <c r="P552">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q552">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R552">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S552">
         <v>3</v>
       </c>
       <c r="T552">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U552">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V552">
-        <v>0.2849999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="W552">
         <v>-1</v>
@@ -48009,13 +48009,13 @@
         <v>-1</v>
       </c>
       <c r="Y552">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="Z552">
         <v>-1</v>
       </c>
       <c r="AA552">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB552">
         <v>-1</v>
@@ -48026,7 +48026,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>7466372</v>
+        <v>7466371</v>
       </c>
       <c r="C553" t="s">
         <v>29</v>
@@ -48035,13 +48035,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E553" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F553" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G553">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H553">
         <v>1</v>
@@ -48050,43 +48050,43 @@
         <v>54</v>
       </c>
       <c r="J553">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="K553">
         <v>3.6</v>
       </c>
       <c r="L553">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M553">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N553">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O553">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P553">
         <v>0</v>
       </c>
       <c r="Q553">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R553">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S553">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T553">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U553">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V553">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W553">
         <v>-1</v>
@@ -48095,13 +48095,13 @@
         <v>-1</v>
       </c>
       <c r="Y553">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z553">
         <v>-1</v>
       </c>
       <c r="AA553">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB553">
         <v>-1</v>
@@ -48112,7 +48112,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>7466371</v>
+        <v>7466373</v>
       </c>
       <c r="C554" t="s">
         <v>29</v>
@@ -48121,13 +48121,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E554" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F554" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G554">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H554">
         <v>1</v>
@@ -48136,43 +48136,43 @@
         <v>54</v>
       </c>
       <c r="J554">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="K554">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L554">
+        <v>9</v>
+      </c>
+      <c r="M554">
+        <v>1.285</v>
+      </c>
+      <c r="N554">
+        <v>5.5</v>
+      </c>
+      <c r="O554">
+        <v>11</v>
+      </c>
+      <c r="P554">
+        <v>-1.5</v>
+      </c>
+      <c r="Q554">
+        <v>1.825</v>
+      </c>
+      <c r="R554">
+        <v>2.025</v>
+      </c>
+      <c r="S554">
         <v>3</v>
       </c>
-      <c r="M554">
-        <v>2.5</v>
-      </c>
-      <c r="N554">
-        <v>3.6</v>
-      </c>
-      <c r="O554">
-        <v>2.7</v>
-      </c>
-      <c r="P554">
-        <v>0</v>
-      </c>
-      <c r="Q554">
-        <v>1.85</v>
-      </c>
-      <c r="R554">
-        <v>2</v>
-      </c>
-      <c r="S554">
-        <v>2.75</v>
-      </c>
       <c r="T554">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U554">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V554">
-        <v>1.5</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W554">
         <v>-1</v>
@@ -48181,13 +48181,13 @@
         <v>-1</v>
       </c>
       <c r="Y554">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z554">
         <v>-1</v>
       </c>
       <c r="AA554">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB554">
         <v>-1</v>
@@ -48222,31 +48222,31 @@
         <v>2.2</v>
       </c>
       <c r="M555">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N555">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O555">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="P555">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q555">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R555">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S555">
         <v>3.25</v>
       </c>
       <c r="T555">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U555">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V555">
         <v>0</v>
@@ -48299,19 +48299,19 @@
         <v>0</v>
       </c>
       <c r="Q556">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R556">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S556">
         <v>2.5</v>
       </c>
       <c r="T556">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U556">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V556">
         <v>0</v>

--- a/England League 2/England League 2.xlsx
+++ b/England League 2/England League 2.xlsx
@@ -4854,7 +4854,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6807018</v>
+        <v>6807017</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -4863,76 +4863,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J51">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="K51">
         <v>3.4</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M51">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="N51">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P51">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S51">
         <v>2.5</v>
       </c>
       <c r="T51">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -5370,7 +5370,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6807017</v>
+        <v>6807018</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -5379,76 +5379,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J57">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K57">
         <v>3.4</v>
       </c>
       <c r="L57">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="N57">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O57">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q57">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R57">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S57">
         <v>2.5</v>
       </c>
       <c r="T57">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V57">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y57">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -6058,7 +6058,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6807885</v>
+        <v>6807767</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6067,73 +6067,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>3</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J65">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L65">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N65">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O65">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="P65">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q65">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T65">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB65">
         <v>-1</v>
@@ -6144,7 +6144,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6807886</v>
+        <v>6807885</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6153,76 +6153,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J66">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="K66">
         <v>3.4</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="M66">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O66">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="P66">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q66">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R66">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
         <v>2.75</v>
       </c>
       <c r="T66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z66">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6230,7 +6230,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6807887</v>
+        <v>6807886</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6239,49 +6239,49 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J67">
         <v>2.1</v>
       </c>
       <c r="K67">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="N67">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P67">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q67">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R67">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T67">
         <v>2.025</v>
@@ -6293,16 +6293,16 @@
         <v>-1</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X67">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA67">
         <v>-1</v>
@@ -6316,7 +6316,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6807888</v>
+        <v>6807887</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -6325,19 +6325,19 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J68">
         <v>2.1</v>
@@ -6367,34 +6367,34 @@
         <v>2.05</v>
       </c>
       <c r="S68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T68">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U68">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y68">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6402,7 +6402,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6807019</v>
+        <v>6807888</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6411,10 +6411,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6426,43 +6426,43 @@
         <v>54</v>
       </c>
       <c r="J69">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="K69">
         <v>3.3</v>
       </c>
       <c r="L69">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N69">
         <v>3.4</v>
       </c>
       <c r="O69">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q69">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T69">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U69">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6471,7 +6471,7 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z69">
         <v>-1</v>
@@ -6480,7 +6480,7 @@
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6488,7 +6488,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6807020</v>
+        <v>6807019</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -6497,49 +6497,49 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
         <v>54</v>
       </c>
       <c r="J70">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="K70">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L70">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M70">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O70">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="P70">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q70">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R70">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T70">
         <v>1.925</v>
@@ -6548,7 +6548,7 @@
         <v>1.925</v>
       </c>
       <c r="V70">
-        <v>0.6000000000000001</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6557,16 +6557,16 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
+        <v>-1</v>
+      </c>
+      <c r="AB70">
         <v>0.925</v>
-      </c>
-      <c r="AB70">
-        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6574,7 +6574,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6807763</v>
+        <v>6807020</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -6583,76 +6583,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J71">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="K71">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L71">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="M71">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N71">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O71">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="P71">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T71">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W71">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6660,7 +6660,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6807767</v>
+        <v>6807763</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
@@ -6669,76 +6669,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="s">
         <v>55</v>
       </c>
       <c r="J72">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L72">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="M72">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="N72">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O72">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="P72">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q72">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R72">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T72">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
         <v>-1</v>
       </c>
       <c r="W72">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z72">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -7864,7 +7864,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6807024</v>
+        <v>6807895</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -7873,73 +7873,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E86" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G86">
         <v>2</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J86">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="K86">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L86">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M86">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="N86">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O86">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
         <v>-0.75</v>
       </c>
       <c r="Q86">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T86">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
+        <v>-1</v>
+      </c>
+      <c r="W86">
+        <v>2.8</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
         <v>0.8</v>
       </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>0.5</v>
-      </c>
-      <c r="Z86">
-        <v>-0.5</v>
-      </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB86">
         <v>-1</v>
@@ -7950,7 +7950,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6807895</v>
+        <v>6808927</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
@@ -7959,76 +7959,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J87">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="K87">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L87">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M87">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="N87">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O87">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P87">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q87">
+        <v>2.025</v>
+      </c>
+      <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
+        <v>2.75</v>
+      </c>
+      <c r="T87">
+        <v>1.8</v>
+      </c>
+      <c r="U87">
         <v>2.05</v>
       </c>
-      <c r="R87">
-        <v>1.8</v>
-      </c>
-      <c r="S87">
-        <v>2.5</v>
-      </c>
-      <c r="T87">
-        <v>1.825</v>
-      </c>
-      <c r="U87">
-        <v>2.025</v>
-      </c>
       <c r="V87">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W87">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8036,7 +8036,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6808927</v>
+        <v>6920706</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8045,76 +8045,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J88">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L88">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M88">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O88">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U88">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8208,7 +8208,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6920706</v>
+        <v>6807774</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
@@ -8217,76 +8217,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J90">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K90">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L90">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="N90">
         <v>3.4</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q90">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T90">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
         <v>-1</v>
       </c>
       <c r="W90">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB90">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8294,7 +8294,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6807774</v>
+        <v>6807773</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -8303,73 +8303,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J91">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K91">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="M91">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N91">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O91">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q91">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
         <v>2.5</v>
       </c>
       <c r="T91">
+        <v>1.875</v>
+      </c>
+      <c r="U91">
         <v>1.975</v>
       </c>
-      <c r="U91">
-        <v>1.875</v>
-      </c>
       <c r="V91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB91">
         <v>-1</v>
@@ -8380,7 +8380,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6807773</v>
+        <v>6807772</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8389,76 +8389,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J92">
+        <v>1.8</v>
+      </c>
+      <c r="K92">
+        <v>3.6</v>
+      </c>
+      <c r="L92">
+        <v>4.333</v>
+      </c>
+      <c r="M92">
+        <v>1.8</v>
+      </c>
+      <c r="N92">
+        <v>3.5</v>
+      </c>
+      <c r="O92">
+        <v>4.75</v>
+      </c>
+      <c r="P92">
+        <v>-0.75</v>
+      </c>
+      <c r="Q92">
+        <v>2.05</v>
+      </c>
+      <c r="R92">
+        <v>1.8</v>
+      </c>
+      <c r="S92">
+        <v>2.25</v>
+      </c>
+      <c r="T92">
+        <v>1.825</v>
+      </c>
+      <c r="U92">
+        <v>2.025</v>
+      </c>
+      <c r="V92">
+        <v>-1</v>
+      </c>
+      <c r="W92">
         <v>2.5</v>
       </c>
-      <c r="K92">
-        <v>3.3</v>
-      </c>
-      <c r="L92">
-        <v>2.8</v>
-      </c>
-      <c r="M92">
-        <v>1.95</v>
-      </c>
-      <c r="N92">
-        <v>3.6</v>
-      </c>
-      <c r="O92">
-        <v>4</v>
-      </c>
-      <c r="P92">
+      <c r="X92">
+        <v>-1</v>
+      </c>
+      <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
+        <v>0.8</v>
+      </c>
+      <c r="AA92">
         <v>-0.5</v>
       </c>
-      <c r="Q92">
-        <v>1.95</v>
-      </c>
-      <c r="R92">
-        <v>1.9</v>
-      </c>
-      <c r="S92">
-        <v>2.5</v>
-      </c>
-      <c r="T92">
-        <v>1.875</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
-      <c r="V92">
-        <v>0.95</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
-      <c r="Y92">
-        <v>0.95</v>
-      </c>
-      <c r="Z92">
-        <v>-1</v>
-      </c>
-      <c r="AA92">
-        <v>0.875</v>
-      </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8466,7 +8466,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6807772</v>
+        <v>6807024</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -8475,34 +8475,34 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F93" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J93">
         <v>1.8</v>
       </c>
       <c r="K93">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L93">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M93">
         <v>1.8</v>
       </c>
       <c r="N93">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O93">
         <v>4.75</v>
@@ -8511,40 +8511,40 @@
         <v>-0.75</v>
       </c>
       <c r="Q93">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
         <v>2.25</v>
       </c>
       <c r="T93">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U93">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W93">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -11476,7 +11476,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6807907</v>
+        <v>6807911</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -11485,76 +11485,76 @@
         <v>45202.65625</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F128" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J128">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="K128">
         <v>3.4</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="M128">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="N128">
         <v>3.3</v>
       </c>
       <c r="O128">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="P128">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R128">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11562,7 +11562,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6807911</v>
+        <v>6807907</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -11571,76 +11571,76 @@
         <v>45202.65625</v>
       </c>
       <c r="E129" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J129">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="K129">
         <v>3.4</v>
       </c>
       <c r="L129">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N129">
         <v>3.3</v>
       </c>
       <c r="O129">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q129">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S129">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T129">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W129">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB129">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -14830,7 +14830,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6807809</v>
+        <v>6807808</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
@@ -14839,76 +14839,76 @@
         <v>45223.65625</v>
       </c>
       <c r="E167" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J167">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="K167">
         <v>3.4</v>
       </c>
       <c r="L167">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="N167">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O167">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P167">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q167">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S167">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U167">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V167">
         <v>-1</v>
       </c>
       <c r="W167">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:28">
@@ -14916,7 +14916,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6807808</v>
+        <v>6807927</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -14925,40 +14925,40 @@
         <v>45223.65625</v>
       </c>
       <c r="E168" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I168" t="s">
         <v>56</v>
       </c>
       <c r="J168">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="K168">
         <v>3.4</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M168">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="N168">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O168">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P168">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q168">
         <v>1.85</v>
@@ -14982,7 +14982,7 @@
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y168">
         <v>-1</v>
@@ -14991,10 +14991,10 @@
         <v>1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB168">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:28">
@@ -15002,7 +15002,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6807927</v>
+        <v>6807809</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
@@ -15011,19 +15011,19 @@
         <v>45223.65625</v>
       </c>
       <c r="E169" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F169" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J169">
         <v>2.1</v>
@@ -15035,52 +15035,52 @@
         <v>3.4</v>
       </c>
       <c r="M169">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N169">
         <v>3.4</v>
       </c>
       <c r="O169">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P169">
         <v>-0.25</v>
       </c>
       <c r="Q169">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T169">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U169">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V169">
         <v>-1</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X169">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z169">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AA169">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -15088,7 +15088,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6807928</v>
+        <v>6808920</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -15097,13 +15097,13 @@
         <v>45223.65625</v>
       </c>
       <c r="E170" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15112,43 +15112,43 @@
         <v>54</v>
       </c>
       <c r="J170">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="K170">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="L170">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M170">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="N170">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="O170">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P170">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q170">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S170">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T170">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U170">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>1.4</v>
+        <v>0.363</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15157,16 +15157,16 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA170">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15174,7 +15174,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6808920</v>
+        <v>6807807</v>
       </c>
       <c r="C171" t="s">
         <v>29</v>
@@ -15183,58 +15183,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E171" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="s">
         <v>54</v>
       </c>
       <c r="J171">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="K171">
+        <v>4</v>
+      </c>
+      <c r="L171">
         <v>4.75</v>
       </c>
-      <c r="L171">
-        <v>7</v>
-      </c>
       <c r="M171">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="N171">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="O171">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="P171">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q171">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R171">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T171">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V171">
-        <v>0.363</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15243,16 +15243,16 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB171">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15260,7 +15260,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6807807</v>
+        <v>6807928</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -15269,58 +15269,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F172" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="s">
         <v>54</v>
       </c>
       <c r="J172">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="K172">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L172">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M172">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="N172">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O172">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P172">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q172">
+        <v>2</v>
+      </c>
+      <c r="R172">
         <v>1.85</v>
       </c>
-      <c r="R172">
-        <v>2</v>
-      </c>
       <c r="S172">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T172">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U172">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="V172">
-        <v>0.6659999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15329,16 +15329,16 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -27128,7 +27128,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6807856</v>
+        <v>6807857</v>
       </c>
       <c r="C310" t="s">
         <v>29</v>
@@ -27137,25 +27137,25 @@
         <v>45304.5</v>
       </c>
       <c r="E310" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F310" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G310">
         <v>0</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" t="s">
         <v>56</v>
       </c>
       <c r="J310">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K310">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L310">
         <v>3</v>
@@ -27167,26 +27167,26 @@
         <v>3.5</v>
       </c>
       <c r="O310">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P310">
         <v>-0.25</v>
       </c>
       <c r="Q310">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R310">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S310">
         <v>2.5</v>
       </c>
       <c r="T310">
+        <v>1.875</v>
+      </c>
+      <c r="U310">
         <v>1.975</v>
       </c>
-      <c r="U310">
-        <v>1.875</v>
-      </c>
       <c r="V310">
         <v>-1</v>
       </c>
@@ -27194,19 +27194,19 @@
         <v>-1</v>
       </c>
       <c r="X310">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA310">
         <v>-1</v>
       </c>
       <c r="AB310">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:28">
@@ -27214,7 +27214,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6807857</v>
+        <v>6807856</v>
       </c>
       <c r="C311" t="s">
         <v>29</v>
@@ -27223,25 +27223,25 @@
         <v>45304.5</v>
       </c>
       <c r="E311" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F311" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G311">
         <v>0</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="s">
         <v>56</v>
       </c>
       <c r="J311">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K311">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L311">
         <v>3</v>
@@ -27253,26 +27253,26 @@
         <v>3.5</v>
       </c>
       <c r="O311">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P311">
         <v>-0.25</v>
       </c>
       <c r="Q311">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R311">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S311">
         <v>2.5</v>
       </c>
       <c r="T311">
+        <v>1.975</v>
+      </c>
+      <c r="U311">
         <v>1.875</v>
       </c>
-      <c r="U311">
-        <v>1.975</v>
-      </c>
       <c r="V311">
         <v>-1</v>
       </c>
@@ -27280,19 +27280,19 @@
         <v>-1</v>
       </c>
       <c r="X311">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA311">
         <v>-1</v>
       </c>
       <c r="AB311">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="312" spans="1:28">
@@ -36416,7 +36416,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>7735480</v>
+        <v>7847672</v>
       </c>
       <c r="C418" t="s">
         <v>29</v>
@@ -36425,61 +36425,61 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E418" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F418" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I418" t="s">
         <v>55</v>
       </c>
       <c r="J418">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="K418">
         <v>3.75</v>
       </c>
       <c r="L418">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M418">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="N418">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O418">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P418">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q418">
+        <v>2</v>
+      </c>
+      <c r="R418">
+        <v>1.85</v>
+      </c>
+      <c r="S418">
+        <v>2.25</v>
+      </c>
+      <c r="T418">
         <v>2.025</v>
       </c>
-      <c r="R418">
+      <c r="U418">
         <v>1.825</v>
       </c>
-      <c r="S418">
-        <v>2.5</v>
-      </c>
-      <c r="T418">
-        <v>1.9</v>
-      </c>
-      <c r="U418">
-        <v>1.95</v>
-      </c>
       <c r="V418">
         <v>-1</v>
       </c>
       <c r="W418">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="X418">
         <v>-1</v>
@@ -36488,13 +36488,13 @@
         <v>-1</v>
       </c>
       <c r="Z418">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA418">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB418">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="419" spans="1:28">
@@ -36588,7 +36588,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7689212</v>
+        <v>7735480</v>
       </c>
       <c r="C420" t="s">
         <v>29</v>
@@ -36597,76 +36597,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E420" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F420" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H420">
         <v>0</v>
       </c>
       <c r="I420" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J420">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K420">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L420">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M420">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="N420">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O420">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P420">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q420">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R420">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S420">
+        <v>2.5</v>
+      </c>
+      <c r="T420">
+        <v>1.9</v>
+      </c>
+      <c r="U420">
+        <v>1.95</v>
+      </c>
+      <c r="V420">
+        <v>-1</v>
+      </c>
+      <c r="W420">
         <v>2.75</v>
       </c>
-      <c r="T420">
-        <v>2.025</v>
-      </c>
-      <c r="U420">
-        <v>1.825</v>
-      </c>
-      <c r="V420">
-        <v>1.375</v>
-      </c>
-      <c r="W420">
-        <v>-1</v>
-      </c>
       <c r="X420">
         <v>-1</v>
       </c>
       <c r="Y420">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z420">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA420">
         <v>-1</v>
       </c>
       <c r="AB420">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="421" spans="1:28">
@@ -36674,7 +36674,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7691333</v>
+        <v>7689212</v>
       </c>
       <c r="C421" t="s">
         <v>29</v>
@@ -36683,76 +36683,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E421" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F421" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G421">
         <v>1</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J421">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="K421">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L421">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M421">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="N421">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O421">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P421">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q421">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R421">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S421">
         <v>2.75</v>
       </c>
       <c r="T421">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U421">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V421">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W421">
         <v>-1</v>
       </c>
       <c r="X421">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y421">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z421">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA421">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB421">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="422" spans="1:28">
@@ -36760,7 +36760,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7847672</v>
+        <v>7691333</v>
       </c>
       <c r="C422" t="s">
         <v>29</v>
@@ -36769,76 +36769,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E422" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F422" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G422">
         <v>1</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I422" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J422">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="K422">
         <v>3.75</v>
       </c>
       <c r="L422">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M422">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="N422">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O422">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P422">
+        <v>-0.75</v>
+      </c>
+      <c r="Q422">
+        <v>1.975</v>
+      </c>
+      <c r="R422">
+        <v>1.875</v>
+      </c>
+      <c r="S422">
+        <v>2.75</v>
+      </c>
+      <c r="T422">
+        <v>1.975</v>
+      </c>
+      <c r="U422">
+        <v>1.875</v>
+      </c>
+      <c r="V422">
+        <v>-1</v>
+      </c>
+      <c r="W422">
+        <v>-1</v>
+      </c>
+      <c r="X422">
+        <v>3.75</v>
+      </c>
+      <c r="Y422">
+        <v>-1</v>
+      </c>
+      <c r="Z422">
+        <v>0.875</v>
+      </c>
+      <c r="AA422">
+        <v>0.4875</v>
+      </c>
+      <c r="AB422">
         <v>-0.5</v>
-      </c>
-      <c r="Q422">
-        <v>2</v>
-      </c>
-      <c r="R422">
-        <v>1.85</v>
-      </c>
-      <c r="S422">
-        <v>2.25</v>
-      </c>
-      <c r="T422">
-        <v>2.025</v>
-      </c>
-      <c r="U422">
-        <v>1.825</v>
-      </c>
-      <c r="V422">
-        <v>-1</v>
-      </c>
-      <c r="W422">
-        <v>2.3</v>
-      </c>
-      <c r="X422">
-        <v>-1</v>
-      </c>
-      <c r="Y422">
-        <v>-1</v>
-      </c>
-      <c r="Z422">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA422">
-        <v>-0.5</v>
-      </c>
-      <c r="AB422">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="423" spans="1:28">
@@ -36846,7 +36846,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7222434</v>
+        <v>7235458</v>
       </c>
       <c r="C423" t="s">
         <v>29</v>
@@ -36855,76 +36855,76 @@
         <v>45360.5</v>
       </c>
       <c r="E423" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F423" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G423">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H423">
         <v>1</v>
       </c>
       <c r="I423" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J423">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="K423">
         <v>3.6</v>
       </c>
       <c r="L423">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="M423">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N423">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O423">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P423">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q423">
+        <v>2</v>
+      </c>
+      <c r="R423">
+        <v>1.85</v>
+      </c>
+      <c r="S423">
+        <v>3.25</v>
+      </c>
+      <c r="T423">
+        <v>2.05</v>
+      </c>
+      <c r="U423">
         <v>1.8</v>
       </c>
-      <c r="R423">
-        <v>2.05</v>
-      </c>
-      <c r="S423">
-        <v>2.5</v>
-      </c>
-      <c r="T423">
-        <v>1.875</v>
-      </c>
-      <c r="U423">
-        <v>1.975</v>
-      </c>
       <c r="V423">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W423">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z423">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA423">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB423">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424" spans="1:28">
@@ -36932,7 +36932,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7235458</v>
+        <v>7222434</v>
       </c>
       <c r="C424" t="s">
         <v>29</v>
@@ -36941,76 +36941,76 @@
         <v>45360.5</v>
       </c>
       <c r="E424" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F424" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G424">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H424">
         <v>1</v>
       </c>
       <c r="I424" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J424">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="K424">
         <v>3.6</v>
       </c>
       <c r="L424">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="M424">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="N424">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O424">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P424">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q424">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R424">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S424">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T424">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U424">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V424">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W424">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z424">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA424">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="425" spans="1:28">
@@ -37018,7 +37018,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7252003</v>
+        <v>7252002</v>
       </c>
       <c r="C425" t="s">
         <v>29</v>
@@ -37027,76 +37027,76 @@
         <v>45360.5</v>
       </c>
       <c r="E425" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F425" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G425">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I425" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J425">
+        <v>2.875</v>
+      </c>
+      <c r="K425">
+        <v>3.4</v>
+      </c>
+      <c r="L425">
         <v>2.375</v>
       </c>
-      <c r="K425">
-        <v>3.6</v>
-      </c>
-      <c r="L425">
-        <v>2.75</v>
-      </c>
       <c r="M425">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N425">
         <v>3.6</v>
       </c>
       <c r="O425">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="P425">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q425">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R425">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S425">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T425">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U425">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V425">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W425">
         <v>-1</v>
       </c>
       <c r="X425">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y425">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z425">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA425">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB425">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426" spans="1:28">
@@ -37104,7 +37104,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7252006</v>
+        <v>7252003</v>
       </c>
       <c r="C426" t="s">
         <v>29</v>
@@ -37113,49 +37113,49 @@
         <v>45360.5</v>
       </c>
       <c r="E426" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F426" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J426">
+        <v>2.375</v>
+      </c>
+      <c r="K426">
+        <v>3.6</v>
+      </c>
+      <c r="L426">
+        <v>2.75</v>
+      </c>
+      <c r="M426">
+        <v>2.45</v>
+      </c>
+      <c r="N426">
+        <v>3.6</v>
+      </c>
+      <c r="O426">
+        <v>2.625</v>
+      </c>
+      <c r="P426">
+        <v>0</v>
+      </c>
+      <c r="Q426">
+        <v>1.85</v>
+      </c>
+      <c r="R426">
+        <v>2</v>
+      </c>
+      <c r="S426">
         <v>2.5</v>
-      </c>
-      <c r="K426">
-        <v>3.4</v>
-      </c>
-      <c r="L426">
-        <v>2.7</v>
-      </c>
-      <c r="M426">
-        <v>2.9</v>
-      </c>
-      <c r="N426">
-        <v>3.5</v>
-      </c>
-      <c r="O426">
-        <v>2.3</v>
-      </c>
-      <c r="P426">
-        <v>0.25</v>
-      </c>
-      <c r="Q426">
-        <v>1.8</v>
-      </c>
-      <c r="R426">
-        <v>2.05</v>
-      </c>
-      <c r="S426">
-        <v>2.75</v>
       </c>
       <c r="T426">
         <v>1.975</v>
@@ -37164,25 +37164,25 @@
         <v>1.875</v>
       </c>
       <c r="V426">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W426">
         <v>-1</v>
       </c>
       <c r="X426">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y426">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z426">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA426">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB426">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="427" spans="1:28">
@@ -37190,7 +37190,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7252005</v>
+        <v>7252006</v>
       </c>
       <c r="C427" t="s">
         <v>29</v>
@@ -37199,76 +37199,76 @@
         <v>45360.5</v>
       </c>
       <c r="E427" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F427" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G427">
         <v>1</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I427" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J427">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="K427">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L427">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="M427">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N427">
         <v>3.5</v>
       </c>
       <c r="O427">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="P427">
+        <v>0.25</v>
+      </c>
+      <c r="Q427">
+        <v>1.8</v>
+      </c>
+      <c r="R427">
+        <v>2.05</v>
+      </c>
+      <c r="S427">
+        <v>2.75</v>
+      </c>
+      <c r="T427">
+        <v>1.975</v>
+      </c>
+      <c r="U427">
+        <v>1.875</v>
+      </c>
+      <c r="V427">
+        <v>-1</v>
+      </c>
+      <c r="W427">
+        <v>-1</v>
+      </c>
+      <c r="X427">
+        <v>1.3</v>
+      </c>
+      <c r="Y427">
+        <v>-1</v>
+      </c>
+      <c r="Z427">
+        <v>1.05</v>
+      </c>
+      <c r="AA427">
+        <v>0.4875</v>
+      </c>
+      <c r="AB427">
         <v>-0.5</v>
-      </c>
-      <c r="Q427">
-        <v>1.975</v>
-      </c>
-      <c r="R427">
-        <v>1.875</v>
-      </c>
-      <c r="S427">
-        <v>2.25</v>
-      </c>
-      <c r="T427">
-        <v>1.925</v>
-      </c>
-      <c r="U427">
-        <v>1.925</v>
-      </c>
-      <c r="V427">
-        <v>-1</v>
-      </c>
-      <c r="W427">
-        <v>2.5</v>
-      </c>
-      <c r="X427">
-        <v>-1</v>
-      </c>
-      <c r="Y427">
-        <v>-1</v>
-      </c>
-      <c r="Z427">
-        <v>0.875</v>
-      </c>
-      <c r="AA427">
-        <v>-0.5</v>
-      </c>
-      <c r="AB427">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="428" spans="1:28">
@@ -37276,7 +37276,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>7252004</v>
+        <v>7252005</v>
       </c>
       <c r="C428" t="s">
         <v>29</v>
@@ -37285,76 +37285,76 @@
         <v>45360.5</v>
       </c>
       <c r="E428" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F428" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G428">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I428" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J428">
+        <v>1.909</v>
+      </c>
+      <c r="K428">
+        <v>3.6</v>
+      </c>
+      <c r="L428">
+        <v>3.8</v>
+      </c>
+      <c r="M428">
+        <v>2</v>
+      </c>
+      <c r="N428">
+        <v>3.5</v>
+      </c>
+      <c r="O428">
+        <v>3.8</v>
+      </c>
+      <c r="P428">
+        <v>-0.5</v>
+      </c>
+      <c r="Q428">
+        <v>1.975</v>
+      </c>
+      <c r="R428">
+        <v>1.875</v>
+      </c>
+      <c r="S428">
+        <v>2.25</v>
+      </c>
+      <c r="T428">
+        <v>1.925</v>
+      </c>
+      <c r="U428">
+        <v>1.925</v>
+      </c>
+      <c r="V428">
+        <v>-1</v>
+      </c>
+      <c r="W428">
         <v>2.5</v>
       </c>
-      <c r="K428">
-        <v>3.4</v>
-      </c>
-      <c r="L428">
-        <v>2.7</v>
-      </c>
-      <c r="M428">
-        <v>3.4</v>
-      </c>
-      <c r="N428">
-        <v>3.4</v>
-      </c>
-      <c r="O428">
-        <v>2.2</v>
-      </c>
-      <c r="P428">
-        <v>0.25</v>
-      </c>
-      <c r="Q428">
-        <v>1.95</v>
-      </c>
-      <c r="R428">
-        <v>1.9</v>
-      </c>
-      <c r="S428">
-        <v>2.5</v>
-      </c>
-      <c r="T428">
-        <v>2.05</v>
-      </c>
-      <c r="U428">
-        <v>1.8</v>
-      </c>
-      <c r="V428">
-        <v>2.4</v>
-      </c>
-      <c r="W428">
-        <v>-1</v>
-      </c>
       <c r="X428">
         <v>-1</v>
       </c>
       <c r="Y428">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z428">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA428">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB428">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="429" spans="1:28">
@@ -37362,7 +37362,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>7252002</v>
+        <v>7252004</v>
       </c>
       <c r="C429" t="s">
         <v>29</v>
@@ -37371,76 +37371,76 @@
         <v>45360.5</v>
       </c>
       <c r="E429" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F429" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G429">
+        <v>2</v>
+      </c>
+      <c r="H429">
         <v>0</v>
       </c>
-      <c r="H429">
-        <v>3</v>
-      </c>
       <c r="I429" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J429">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="K429">
         <v>3.4</v>
       </c>
       <c r="L429">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="M429">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N429">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O429">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="P429">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q429">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R429">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S429">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T429">
+        <v>2.05</v>
+      </c>
+      <c r="U429">
         <v>1.8</v>
       </c>
-      <c r="U429">
-        <v>2.05</v>
-      </c>
       <c r="V429">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W429">
         <v>-1</v>
       </c>
       <c r="X429">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y429">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z429">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA429">
+        <v>-1</v>
+      </c>
+      <c r="AB429">
         <v>0.8</v>
-      </c>
-      <c r="AB429">
-        <v>-1</v>
       </c>
     </row>
     <row r="430" spans="1:28">
@@ -37448,7 +37448,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>7252007</v>
+        <v>7252009</v>
       </c>
       <c r="C430" t="s">
         <v>29</v>
@@ -37457,40 +37457,40 @@
         <v>45360.5</v>
       </c>
       <c r="E430" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F430" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G430">
+        <v>0</v>
+      </c>
+      <c r="H430">
+        <v>2</v>
+      </c>
+      <c r="I430" t="s">
+        <v>56</v>
+      </c>
+      <c r="J430">
+        <v>2.2</v>
+      </c>
+      <c r="K430">
+        <v>3.6</v>
+      </c>
+      <c r="L430">
         <v>3</v>
       </c>
-      <c r="H430">
-        <v>2</v>
-      </c>
-      <c r="I430" t="s">
-        <v>54</v>
-      </c>
-      <c r="J430">
-        <v>1.5</v>
-      </c>
-      <c r="K430">
-        <v>4.2</v>
-      </c>
-      <c r="L430">
-        <v>6.5</v>
-      </c>
       <c r="M430">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="N430">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O430">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="P430">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q430">
         <v>1.975</v>
@@ -37499,34 +37499,34 @@
         <v>1.875</v>
       </c>
       <c r="S430">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T430">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U430">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V430">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W430">
         <v>-1</v>
       </c>
       <c r="X430">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y430">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z430">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA430">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB430">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="431" spans="1:28">
@@ -37534,7 +37534,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>7252009</v>
+        <v>7252007</v>
       </c>
       <c r="C431" t="s">
         <v>29</v>
@@ -37543,40 +37543,40 @@
         <v>45360.5</v>
       </c>
       <c r="E431" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F431" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G431">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H431">
         <v>2</v>
       </c>
       <c r="I431" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J431">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="K431">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L431">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="M431">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="N431">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O431">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="P431">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q431">
         <v>1.975</v>
@@ -37585,34 +37585,34 @@
         <v>1.875</v>
       </c>
       <c r="S431">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T431">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U431">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V431">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W431">
         <v>-1</v>
       </c>
       <c r="X431">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y431">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z431">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA431">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB431">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432" spans="1:28">
@@ -42608,7 +42608,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>7343486</v>
+        <v>7328140</v>
       </c>
       <c r="C490" t="s">
         <v>29</v>
@@ -42617,73 +42617,73 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E490" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F490" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G490">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H490">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I490" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J490">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K490">
         <v>3.4</v>
       </c>
       <c r="L490">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M490">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="N490">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O490">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="P490">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q490">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R490">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S490">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T490">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U490">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V490">
         <v>-1</v>
       </c>
       <c r="W490">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X490">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y490">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z490">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA490">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB490">
         <v>-1</v>
@@ -42694,7 +42694,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>7328140</v>
+        <v>7343486</v>
       </c>
       <c r="C491" t="s">
         <v>29</v>
@@ -42703,73 +42703,73 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E491" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F491" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G491">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H491">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I491" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J491">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K491">
         <v>3.4</v>
       </c>
       <c r="L491">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M491">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N491">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O491">
+        <v>2.3</v>
+      </c>
+      <c r="P491">
+        <v>0.25</v>
+      </c>
+      <c r="Q491">
+        <v>1.85</v>
+      </c>
+      <c r="R491">
+        <v>2</v>
+      </c>
+      <c r="S491">
+        <v>3.25</v>
+      </c>
+      <c r="T491">
+        <v>1.975</v>
+      </c>
+      <c r="U491">
+        <v>1.875</v>
+      </c>
+      <c r="V491">
+        <v>-1</v>
+      </c>
+      <c r="W491">
         <v>2.6</v>
       </c>
-      <c r="P491">
-        <v>0</v>
-      </c>
-      <c r="Q491">
-        <v>1.925</v>
-      </c>
-      <c r="R491">
-        <v>1.925</v>
-      </c>
-      <c r="S491">
-        <v>2.75</v>
-      </c>
-      <c r="T491">
-        <v>1.925</v>
-      </c>
-      <c r="U491">
-        <v>1.925</v>
-      </c>
-      <c r="V491">
-        <v>-1</v>
-      </c>
-      <c r="W491">
-        <v>-1</v>
-      </c>
       <c r="X491">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y491">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z491">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA491">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB491">
         <v>-1</v>
@@ -43382,7 +43382,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>7385955</v>
+        <v>7400930</v>
       </c>
       <c r="C499" t="s">
         <v>29</v>
@@ -43391,76 +43391,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E499" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F499" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J499">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K499">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L499">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M499">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="N499">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O499">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P499">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q499">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="R499">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S499">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T499">
+        <v>1.875</v>
+      </c>
+      <c r="U499">
         <v>1.975</v>
       </c>
-      <c r="U499">
-        <v>1.875</v>
-      </c>
       <c r="V499">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W499">
         <v>-1</v>
       </c>
       <c r="X499">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y499">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z499">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA499">
         <v>-1</v>
       </c>
       <c r="AB499">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="500" spans="1:28">
@@ -43468,7 +43468,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>7385952</v>
+        <v>7385955</v>
       </c>
       <c r="C500" t="s">
         <v>29</v>
@@ -43477,76 +43477,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E500" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F500" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G500">
         <v>1</v>
       </c>
       <c r="H500">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J500">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K500">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L500">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="M500">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N500">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O500">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="P500">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q500">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="R500">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S500">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T500">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U500">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V500">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W500">
         <v>-1</v>
       </c>
       <c r="X500">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y500">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z500">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA500">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB500">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="501" spans="1:28">
@@ -43554,7 +43554,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>7385951</v>
+        <v>7385952</v>
       </c>
       <c r="C501" t="s">
         <v>29</v>
@@ -43563,10 +43563,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E501" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F501" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G501">
         <v>1</v>
@@ -43578,41 +43578,41 @@
         <v>56</v>
       </c>
       <c r="J501">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="K501">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L501">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="M501">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N501">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O501">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="P501">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q501">
+        <v>1.825</v>
+      </c>
+      <c r="R501">
         <v>2.025</v>
       </c>
-      <c r="R501">
+      <c r="S501">
+        <v>2.75</v>
+      </c>
+      <c r="T501">
+        <v>2.025</v>
+      </c>
+      <c r="U501">
         <v>1.825</v>
       </c>
-      <c r="S501">
-        <v>2.25</v>
-      </c>
-      <c r="T501">
-        <v>1.875</v>
-      </c>
-      <c r="U501">
-        <v>1.975</v>
-      </c>
       <c r="V501">
         <v>-1</v>
       </c>
@@ -43620,16 +43620,16 @@
         <v>-1</v>
       </c>
       <c r="X501">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="Y501">
         <v>-1</v>
       </c>
       <c r="Z501">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA501">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB501">
         <v>-1</v>
@@ -43640,7 +43640,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>7385950</v>
+        <v>7385951</v>
       </c>
       <c r="C502" t="s">
         <v>29</v>
@@ -43649,76 +43649,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E502" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F502" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G502">
+        <v>1</v>
+      </c>
+      <c r="H502">
         <v>3</v>
       </c>
-      <c r="H502">
-        <v>0</v>
-      </c>
       <c r="I502" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J502">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="K502">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="L502">
+        <v>1.727</v>
+      </c>
+      <c r="M502">
         <v>5</v>
       </c>
-      <c r="M502">
-        <v>1.833</v>
-      </c>
       <c r="N502">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O502">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="P502">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q502">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R502">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S502">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T502">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U502">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V502">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W502">
         <v>-1</v>
       </c>
       <c r="X502">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y502">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z502">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA502">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB502">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503" spans="1:28">
@@ -43726,7 +43726,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>7344563</v>
+        <v>7385950</v>
       </c>
       <c r="C503" t="s">
         <v>29</v>
@@ -43735,13 +43735,13 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E503" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F503" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G503">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H503">
         <v>0</v>
@@ -43750,43 +43750,43 @@
         <v>54</v>
       </c>
       <c r="J503">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="K503">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L503">
+        <v>5</v>
+      </c>
+      <c r="M503">
+        <v>1.833</v>
+      </c>
+      <c r="N503">
+        <v>4.2</v>
+      </c>
+      <c r="O503">
         <v>3.8</v>
       </c>
-      <c r="M503">
-        <v>1.727</v>
-      </c>
-      <c r="N503">
-        <v>3.8</v>
-      </c>
-      <c r="O503">
-        <v>4.75</v>
-      </c>
       <c r="P503">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q503">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R503">
+        <v>2</v>
+      </c>
+      <c r="S503">
+        <v>3.25</v>
+      </c>
+      <c r="T503">
+        <v>2</v>
+      </c>
+      <c r="U503">
         <v>1.85</v>
       </c>
-      <c r="S503">
-        <v>2.5</v>
-      </c>
-      <c r="T503">
-        <v>1.9</v>
-      </c>
-      <c r="U503">
-        <v>1.95</v>
-      </c>
       <c r="V503">
-        <v>0.7270000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="W503">
         <v>-1</v>
@@ -43795,16 +43795,16 @@
         <v>-1</v>
       </c>
       <c r="Y503">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z503">
+        <v>-1</v>
+      </c>
+      <c r="AA503">
         <v>-0.5</v>
       </c>
-      <c r="AA503">
-        <v>-1</v>
-      </c>
       <c r="AB503">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="504" spans="1:28">
@@ -43812,7 +43812,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>7400930</v>
+        <v>7344563</v>
       </c>
       <c r="C504" t="s">
         <v>29</v>
@@ -43821,34 +43821,34 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E504" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F504" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G504">
+        <v>1</v>
+      </c>
+      <c r="H504">
         <v>0</v>
       </c>
-      <c r="H504">
-        <v>2</v>
-      </c>
       <c r="I504" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J504">
+        <v>1.909</v>
+      </c>
+      <c r="K504">
+        <v>3.6</v>
+      </c>
+      <c r="L504">
+        <v>3.8</v>
+      </c>
+      <c r="M504">
         <v>1.727</v>
       </c>
-      <c r="K504">
+      <c r="N504">
         <v>3.8</v>
-      </c>
-      <c r="L504">
-        <v>4.5</v>
-      </c>
-      <c r="M504">
-        <v>1.65</v>
-      </c>
-      <c r="N504">
-        <v>4</v>
       </c>
       <c r="O504">
         <v>4.75</v>
@@ -43857,40 +43857,40 @@
         <v>-0.75</v>
       </c>
       <c r="Q504">
+        <v>2</v>
+      </c>
+      <c r="R504">
         <v>1.85</v>
       </c>
-      <c r="R504">
-        <v>2</v>
-      </c>
       <c r="S504">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T504">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U504">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V504">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W504">
         <v>-1</v>
       </c>
       <c r="X504">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y504">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z504">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA504">
         <v>-1</v>
       </c>
       <c r="AB504">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="505" spans="1:28">
@@ -44758,7 +44758,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>7400931</v>
+        <v>7400932</v>
       </c>
       <c r="C515" t="s">
         <v>29</v>
@@ -44767,40 +44767,40 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E515" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F515" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G515">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H515">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J515">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K515">
         <v>3.4</v>
       </c>
       <c r="L515">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M515">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="N515">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O515">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P515">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q515">
         <v>1.85</v>
@@ -44812,28 +44812,28 @@
         <v>2.75</v>
       </c>
       <c r="T515">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U515">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V515">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W515">
         <v>-1</v>
       </c>
       <c r="X515">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y515">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z515">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA515">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB515">
         <v>-1</v>
@@ -44844,7 +44844,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>7400937</v>
+        <v>7400931</v>
       </c>
       <c r="C516" t="s">
         <v>29</v>
@@ -44853,56 +44853,56 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E516" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F516" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G516">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I516" t="s">
         <v>56</v>
       </c>
       <c r="J516">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K516">
         <v>3.4</v>
       </c>
       <c r="L516">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M516">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="N516">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O516">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="P516">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q516">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R516">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S516">
         <v>2.75</v>
       </c>
       <c r="T516">
+        <v>1.825</v>
+      </c>
+      <c r="U516">
         <v>2.025</v>
       </c>
-      <c r="U516">
-        <v>1.825</v>
-      </c>
       <c r="V516">
         <v>-1</v>
       </c>
@@ -44910,19 +44910,19 @@
         <v>-1</v>
       </c>
       <c r="X516">
-        <v>1.625</v>
+        <v>2.3</v>
       </c>
       <c r="Y516">
         <v>-1</v>
       </c>
       <c r="Z516">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA516">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AB516">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="517" spans="1:28">
@@ -44930,7 +44930,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>7400936</v>
+        <v>7400937</v>
       </c>
       <c r="C517" t="s">
         <v>29</v>
@@ -44939,10 +44939,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E517" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F517" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G517">
         <v>1</v>
@@ -44954,41 +44954,41 @@
         <v>56</v>
       </c>
       <c r="J517">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K517">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L517">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M517">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N517">
         <v>3.5</v>
       </c>
       <c r="O517">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="P517">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q517">
+        <v>1.9</v>
+      </c>
+      <c r="R517">
+        <v>1.95</v>
+      </c>
+      <c r="S517">
+        <v>2.75</v>
+      </c>
+      <c r="T517">
+        <v>2.025</v>
+      </c>
+      <c r="U517">
         <v>1.825</v>
       </c>
-      <c r="R517">
-        <v>2.025</v>
-      </c>
-      <c r="S517">
-        <v>2.5</v>
-      </c>
-      <c r="T517">
-        <v>1.825</v>
-      </c>
-      <c r="U517">
-        <v>2.025</v>
-      </c>
       <c r="V517">
         <v>-1</v>
       </c>
@@ -44996,19 +44996,19 @@
         <v>-1</v>
       </c>
       <c r="X517">
-        <v>1.3</v>
+        <v>1.625</v>
       </c>
       <c r="Y517">
         <v>-1</v>
       </c>
       <c r="Z517">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA517">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
       <c r="AB517">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="518" spans="1:28">
@@ -45016,7 +45016,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>7400935</v>
+        <v>7400936</v>
       </c>
       <c r="C518" t="s">
         <v>29</v>
@@ -45025,55 +45025,55 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E518" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F518" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G518">
         <v>1</v>
       </c>
       <c r="H518">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I518" t="s">
         <v>56</v>
       </c>
       <c r="J518">
+        <v>2.25</v>
+      </c>
+      <c r="K518">
+        <v>3.5</v>
+      </c>
+      <c r="L518">
+        <v>2.75</v>
+      </c>
+      <c r="M518">
+        <v>3</v>
+      </c>
+      <c r="N518">
+        <v>3.5</v>
+      </c>
+      <c r="O518">
+        <v>2.3</v>
+      </c>
+      <c r="P518">
+        <v>0.25</v>
+      </c>
+      <c r="Q518">
+        <v>1.825</v>
+      </c>
+      <c r="R518">
+        <v>2.025</v>
+      </c>
+      <c r="S518">
         <v>2.5</v>
       </c>
-      <c r="K518">
-        <v>3.4</v>
-      </c>
-      <c r="L518">
-        <v>2.5</v>
-      </c>
-      <c r="M518">
-        <v>2.4</v>
-      </c>
-      <c r="N518">
-        <v>3.4</v>
-      </c>
-      <c r="O518">
-        <v>3</v>
-      </c>
-      <c r="P518">
-        <v>-0.25</v>
-      </c>
-      <c r="Q518">
-        <v>2.05</v>
-      </c>
-      <c r="R518">
-        <v>1.75</v>
-      </c>
-      <c r="S518">
-        <v>2.75</v>
-      </c>
       <c r="T518">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U518">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V518">
         <v>-1</v>
@@ -45082,16 +45082,16 @@
         <v>-1</v>
       </c>
       <c r="X518">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="Y518">
         <v>-1</v>
       </c>
       <c r="Z518">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA518">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB518">
         <v>-1</v>
@@ -45102,7 +45102,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>7400933</v>
+        <v>7400935</v>
       </c>
       <c r="C519" t="s">
         <v>29</v>
@@ -45111,73 +45111,73 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E519" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F519" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G519">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I519" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J519">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K519">
         <v>3.4</v>
       </c>
       <c r="L519">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M519">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N519">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O519">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P519">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q519">
+        <v>2.05</v>
+      </c>
+      <c r="R519">
+        <v>1.75</v>
+      </c>
+      <c r="S519">
+        <v>2.75</v>
+      </c>
+      <c r="T519">
         <v>1.875</v>
       </c>
-      <c r="R519">
+      <c r="U519">
         <v>1.975</v>
       </c>
-      <c r="S519">
-        <v>2.25</v>
-      </c>
-      <c r="T519">
-        <v>1.975</v>
-      </c>
-      <c r="U519">
-        <v>1.875</v>
-      </c>
       <c r="V519">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W519">
         <v>-1</v>
       </c>
       <c r="X519">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y519">
+        <v>-1</v>
+      </c>
+      <c r="Z519">
+        <v>0.75</v>
+      </c>
+      <c r="AA519">
         <v>0.875</v>
-      </c>
-      <c r="Z519">
-        <v>-1</v>
-      </c>
-      <c r="AA519">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AB519">
         <v>-1</v>
@@ -45188,7 +45188,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>7400934</v>
+        <v>7400933</v>
       </c>
       <c r="C520" t="s">
         <v>29</v>
@@ -45197,73 +45197,73 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E520" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F520" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G520">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J520">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K520">
         <v>3.4</v>
       </c>
       <c r="L520">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="M520">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N520">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O520">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P520">
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R520">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S520">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T520">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U520">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V520">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W520">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X520">
         <v>-1</v>
       </c>
       <c r="Y520">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z520">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA520">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB520">
         <v>-1</v>
@@ -45274,7 +45274,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>7385953</v>
+        <v>7400934</v>
       </c>
       <c r="C521" t="s">
         <v>29</v>
@@ -45283,73 +45283,73 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E521" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F521" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G521">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H521">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J521">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K521">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L521">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="M521">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N521">
         <v>3.4</v>
       </c>
       <c r="O521">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="P521">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q521">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R521">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S521">
         <v>2.5</v>
       </c>
       <c r="T521">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U521">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V521">
         <v>-1</v>
       </c>
       <c r="W521">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X521">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y521">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z521">
+        <v>0</v>
+      </c>
+      <c r="AA521">
         <v>0.95</v>
-      </c>
-      <c r="AA521">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AB521">
         <v>-1</v>
@@ -45360,7 +45360,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>7400938</v>
+        <v>7385953</v>
       </c>
       <c r="C522" t="s">
         <v>29</v>
@@ -45369,76 +45369,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E522" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F522" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G522">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I522" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J522">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="K522">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L522">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M522">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="N522">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="O522">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="P522">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q522">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R522">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S522">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T522">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U522">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V522">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W522">
         <v>-1</v>
       </c>
       <c r="X522">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y522">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z522">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA522">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB522">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="523" spans="1:28">
@@ -45446,7 +45446,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>7400932</v>
+        <v>7400938</v>
       </c>
       <c r="C523" t="s">
         <v>29</v>
@@ -45455,13 +45455,13 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E523" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F523" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G523">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H523">
         <v>0</v>
@@ -45470,43 +45470,43 @@
         <v>54</v>
       </c>
       <c r="J523">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="K523">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L523">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M523">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="N523">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="O523">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="P523">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q523">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R523">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S523">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T523">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U523">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V523">
-        <v>0.6659999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="W523">
         <v>-1</v>
@@ -45515,16 +45515,16 @@
         <v>-1</v>
       </c>
       <c r="Y523">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z523">
         <v>-1</v>
       </c>
       <c r="AA523">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB523">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="524" spans="1:28">
@@ -45532,7 +45532,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>7962569</v>
+        <v>7766071</v>
       </c>
       <c r="C524" t="s">
         <v>29</v>
@@ -45541,76 +45541,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E524" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F524" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G524">
         <v>2</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I524" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J524">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="K524">
         <v>3.8</v>
       </c>
       <c r="L524">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="M524">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N524">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O524">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="P524">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q524">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R524">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S524">
         <v>3</v>
       </c>
       <c r="T524">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U524">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V524">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W524">
         <v>-1</v>
       </c>
       <c r="X524">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y524">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z524">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA524">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB524">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="525" spans="1:28">
@@ -45618,7 +45618,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>7844097</v>
+        <v>7962569</v>
       </c>
       <c r="C525" t="s">
         <v>29</v>
@@ -45627,40 +45627,40 @@
         <v>45398.65625</v>
       </c>
       <c r="E525" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F525" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G525">
         <v>2</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I525" t="s">
         <v>54</v>
       </c>
       <c r="J525">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K525">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L525">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M525">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N525">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O525">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P525">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q525">
         <v>1.925</v>
@@ -45669,16 +45669,16 @@
         <v>1.925</v>
       </c>
       <c r="S525">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T525">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U525">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V525">
-        <v>1.2</v>
+        <v>0.909</v>
       </c>
       <c r="W525">
         <v>-1</v>
@@ -45693,10 +45693,10 @@
         <v>-1</v>
       </c>
       <c r="AA525">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB525">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:28">
@@ -45876,7 +45876,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>7766071</v>
+        <v>7844097</v>
       </c>
       <c r="C528" t="s">
         <v>29</v>
@@ -45885,76 +45885,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E528" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F528" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G528">
         <v>2</v>
       </c>
       <c r="H528">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I528" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J528">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="K528">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L528">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="M528">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N528">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O528">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="P528">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q528">
+        <v>1.925</v>
+      </c>
+      <c r="R528">
+        <v>1.925</v>
+      </c>
+      <c r="S528">
+        <v>2.5</v>
+      </c>
+      <c r="T528">
         <v>1.975</v>
       </c>
-      <c r="R528">
+      <c r="U528">
         <v>1.875</v>
       </c>
-      <c r="S528">
-        <v>3</v>
-      </c>
-      <c r="T528">
-        <v>1.95</v>
-      </c>
-      <c r="U528">
-        <v>1.9</v>
-      </c>
       <c r="V528">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W528">
         <v>-1</v>
       </c>
       <c r="X528">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y528">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z528">
+        <v>-1</v>
+      </c>
+      <c r="AA528">
+        <v>-1</v>
+      </c>
+      <c r="AB528">
         <v>0.875</v>
-      </c>
-      <c r="AA528">
-        <v>0.95</v>
-      </c>
-      <c r="AB528">
-        <v>-1</v>
       </c>
     </row>
     <row r="529" spans="1:28">
@@ -47166,7 +47166,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>7451982</v>
+        <v>7433464</v>
       </c>
       <c r="C543" t="s">
         <v>29</v>
@@ -47175,76 +47175,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E543" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F543" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G543">
         <v>2</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I543" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J543">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="K543">
         <v>3.75</v>
       </c>
       <c r="L543">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="M543">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="N543">
         <v>3.8</v>
       </c>
       <c r="O543">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="P543">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q543">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R543">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S543">
         <v>3</v>
       </c>
       <c r="T543">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U543">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V543">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W543">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X543">
         <v>-1</v>
       </c>
       <c r="Y543">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z543">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA543">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB543">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544" spans="1:28">
@@ -47252,7 +47252,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>7433464</v>
+        <v>7437053</v>
       </c>
       <c r="C544" t="s">
         <v>29</v>
@@ -47261,46 +47261,46 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E544" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F544" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G544">
         <v>2</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J544">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="K544">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L544">
         <v>4.2</v>
       </c>
       <c r="M544">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="N544">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O544">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P544">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q544">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R544">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S544">
         <v>3</v>
@@ -47312,25 +47312,25 @@
         <v>2.025</v>
       </c>
       <c r="V544">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W544">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X544">
         <v>-1</v>
       </c>
       <c r="Y544">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z544">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA544">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB544">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="545" spans="1:28">
@@ -47338,7 +47338,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>7437053</v>
+        <v>7451290</v>
       </c>
       <c r="C545" t="s">
         <v>29</v>
@@ -47347,13 +47347,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E545" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F545" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G545">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H545">
         <v>0</v>
@@ -47362,43 +47362,43 @@
         <v>54</v>
       </c>
       <c r="J545">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="K545">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L545">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="M545">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N545">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O545">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="P545">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q545">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R545">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S545">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T545">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U545">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V545">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="W545">
         <v>-1</v>
@@ -47407,7 +47407,7 @@
         <v>-1</v>
       </c>
       <c r="Y545">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z545">
         <v>-1</v>
@@ -47416,7 +47416,7 @@
         <v>-1</v>
       </c>
       <c r="AB545">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="546" spans="1:28">
@@ -47424,7 +47424,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>7451290</v>
+        <v>7466374</v>
       </c>
       <c r="C546" t="s">
         <v>29</v>
@@ -47433,76 +47433,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E546" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F546" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G546">
         <v>1</v>
       </c>
       <c r="H546">
+        <v>1</v>
+      </c>
+      <c r="I546" t="s">
+        <v>55</v>
+      </c>
+      <c r="J546">
+        <v>3</v>
+      </c>
+      <c r="K546">
+        <v>2.5</v>
+      </c>
+      <c r="L546">
+        <v>3</v>
+      </c>
+      <c r="M546">
+        <v>2.625</v>
+      </c>
+      <c r="N546">
+        <v>2.625</v>
+      </c>
+      <c r="O546">
+        <v>3.4</v>
+      </c>
+      <c r="P546">
         <v>0</v>
       </c>
-      <c r="I546" t="s">
-        <v>54</v>
-      </c>
-      <c r="J546">
-        <v>2.875</v>
-      </c>
-      <c r="K546">
-        <v>3.75</v>
-      </c>
-      <c r="L546">
-        <v>2.2</v>
-      </c>
-      <c r="M546">
-        <v>3</v>
-      </c>
-      <c r="N546">
-        <v>4</v>
-      </c>
-      <c r="O546">
-        <v>2.15</v>
-      </c>
-      <c r="P546">
-        <v>0.25</v>
-      </c>
       <c r="Q546">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R546">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S546">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T546">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U546">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V546">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W546">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X546">
         <v>-1</v>
       </c>
       <c r="Y546">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z546">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA546">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB546">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="547" spans="1:28">
@@ -47510,7 +47510,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>7466374</v>
+        <v>7466376</v>
       </c>
       <c r="C547" t="s">
         <v>29</v>
@@ -47519,76 +47519,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E547" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F547" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G547">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I547" t="s">
         <v>55</v>
       </c>
       <c r="J547">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="K547">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L547">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M547">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N547">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="O547">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P547">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q547">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="R547">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S547">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T547">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U547">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V547">
         <v>-1</v>
       </c>
       <c r="W547">
-        <v>1.625</v>
+        <v>3.75</v>
       </c>
       <c r="X547">
         <v>-1</v>
       </c>
       <c r="Y547">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z547">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA547">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB547">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548" spans="1:28">
@@ -47596,7 +47596,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>7451291</v>
+        <v>7451289</v>
       </c>
       <c r="C548" t="s">
         <v>29</v>
@@ -47605,76 +47605,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E548" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F548" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G548">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I548" t="s">
         <v>55</v>
       </c>
       <c r="J548">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="K548">
         <v>3.4</v>
       </c>
       <c r="L548">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="M548">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N548">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O548">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="P548">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q548">
+        <v>2.05</v>
+      </c>
+      <c r="R548">
+        <v>1.75</v>
+      </c>
+      <c r="S548">
+        <v>2.5</v>
+      </c>
+      <c r="T548">
         <v>1.825</v>
       </c>
-      <c r="R548">
+      <c r="U548">
         <v>2.025</v>
       </c>
-      <c r="S548">
-        <v>2.75</v>
-      </c>
-      <c r="T548">
-        <v>1.875</v>
-      </c>
-      <c r="U548">
-        <v>1.975</v>
-      </c>
       <c r="V548">
         <v>-1</v>
       </c>
       <c r="W548">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="X548">
         <v>-1</v>
       </c>
       <c r="Y548">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="Z548">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AA548">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB548">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="549" spans="1:28">
@@ -47682,7 +47682,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>7466376</v>
+        <v>7466375</v>
       </c>
       <c r="C549" t="s">
         <v>29</v>
@@ -47691,40 +47691,40 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E549" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F549" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G549">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H549">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I549" t="s">
         <v>55</v>
       </c>
       <c r="J549">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K549">
+        <v>3.8</v>
+      </c>
+      <c r="L549">
         <v>4</v>
       </c>
-      <c r="L549">
-        <v>2.75</v>
-      </c>
       <c r="M549">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="N549">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O549">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P549">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q549">
         <v>2.025</v>
@@ -47736,16 +47736,16 @@
         <v>3.25</v>
       </c>
       <c r="T549">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U549">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V549">
         <v>-1</v>
       </c>
       <c r="W549">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="X549">
         <v>-1</v>
@@ -47757,7 +47757,7 @@
         <v>0.825</v>
       </c>
       <c r="AA549">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB549">
         <v>-1</v>
@@ -47768,7 +47768,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>7451289</v>
+        <v>7451982</v>
       </c>
       <c r="C550" t="s">
         <v>29</v>
@@ -47777,76 +47777,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E550" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F550" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G550">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H550">
         <v>1</v>
       </c>
       <c r="I550" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J550">
         <v>2.375</v>
       </c>
       <c r="K550">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L550">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="M550">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N550">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O550">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P550">
         <v>-0.25</v>
       </c>
       <c r="Q550">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R550">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S550">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T550">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U550">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V550">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W550">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X550">
         <v>-1</v>
       </c>
       <c r="Y550">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z550">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA550">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB550">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:28">
@@ -47854,7 +47854,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>7466375</v>
+        <v>7466373</v>
       </c>
       <c r="C551" t="s">
         <v>29</v>
@@ -47863,73 +47863,73 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E551" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F551" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G551">
         <v>4</v>
       </c>
       <c r="H551">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I551" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J551">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="K551">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="L551">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M551">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="N551">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O551">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="P551">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q551">
+        <v>1.825</v>
+      </c>
+      <c r="R551">
         <v>2.025</v>
       </c>
-      <c r="R551">
-        <v>1.825</v>
-      </c>
       <c r="S551">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T551">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U551">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V551">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W551">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X551">
         <v>-1</v>
       </c>
       <c r="Y551">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z551">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA551">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB551">
         <v>-1</v>
@@ -47940,7 +47940,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>7466372</v>
+        <v>7466371</v>
       </c>
       <c r="C552" t="s">
         <v>29</v>
@@ -47949,13 +47949,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E552" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F552" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G552">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H552">
         <v>1</v>
@@ -47964,43 +47964,43 @@
         <v>54</v>
       </c>
       <c r="J552">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="K552">
         <v>3.6</v>
       </c>
       <c r="L552">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M552">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N552">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O552">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P552">
         <v>0</v>
       </c>
       <c r="Q552">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R552">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S552">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T552">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U552">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V552">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W552">
         <v>-1</v>
@@ -48009,13 +48009,13 @@
         <v>-1</v>
       </c>
       <c r="Y552">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z552">
         <v>-1</v>
       </c>
       <c r="AA552">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB552">
         <v>-1</v>
@@ -48026,7 +48026,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>7466371</v>
+        <v>7466372</v>
       </c>
       <c r="C553" t="s">
         <v>29</v>
@@ -48035,13 +48035,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E553" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F553" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G553">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H553">
         <v>1</v>
@@ -48050,43 +48050,43 @@
         <v>54</v>
       </c>
       <c r="J553">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="K553">
         <v>3.6</v>
       </c>
       <c r="L553">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M553">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N553">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O553">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P553">
         <v>0</v>
       </c>
       <c r="Q553">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R553">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S553">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T553">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U553">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V553">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="W553">
         <v>-1</v>
@@ -48095,13 +48095,13 @@
         <v>-1</v>
       </c>
       <c r="Y553">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z553">
         <v>-1</v>
       </c>
       <c r="AA553">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB553">
         <v>-1</v>
@@ -48112,7 +48112,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>7466373</v>
+        <v>7451291</v>
       </c>
       <c r="C554" t="s">
         <v>29</v>
@@ -48121,40 +48121,40 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E554" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F554" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G554">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I554" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J554">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="K554">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L554">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="M554">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="N554">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="O554">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="P554">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q554">
         <v>1.825</v>
@@ -48163,31 +48163,31 @@
         <v>2.025</v>
       </c>
       <c r="S554">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T554">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U554">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V554">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W554">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X554">
         <v>-1</v>
       </c>
       <c r="Y554">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="Z554">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA554">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB554">
         <v>-1</v>
@@ -48222,22 +48222,22 @@
         <v>2.2</v>
       </c>
       <c r="M555">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N555">
         <v>3.8</v>
       </c>
       <c r="O555">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P555">
         <v>0</v>
       </c>
       <c r="Q555">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R555">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S555">
         <v>3.25</v>
@@ -48287,13 +48287,13 @@
         <v>2.6</v>
       </c>
       <c r="M556">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N556">
         <v>3.6</v>
       </c>
       <c r="O556">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="P556">
         <v>0</v>

--- a/England League 2/England League 2.xlsx
+++ b/England League 2/England League 2.xlsx
@@ -97,10 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8153078</t>
+    <t>8153812</t>
   </si>
   <si>
-    <t>8153812</t>
+    <t>8153811</t>
   </si>
   <si>
     <t>England League 2</t>
@@ -48290,49 +48290,49 @@
         <v>29</v>
       </c>
       <c r="D556" s="2">
-        <v>45419.64583333334</v>
+        <v>45422.66666666666</v>
       </c>
       <c r="E556" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F556" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J556">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="K556">
+        <v>3.75</v>
+      </c>
+      <c r="L556">
+        <v>4.333</v>
+      </c>
+      <c r="M556">
+        <v>1.666</v>
+      </c>
+      <c r="N556">
         <v>3.8</v>
       </c>
-      <c r="L556">
-        <v>2.2</v>
-      </c>
-      <c r="M556">
-        <v>2.625</v>
-      </c>
-      <c r="N556">
-        <v>3.6</v>
-      </c>
       <c r="O556">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="P556">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q556">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R556">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S556">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T556">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U556">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V556">
         <v>0</v>
@@ -48355,49 +48355,49 @@
         <v>29</v>
       </c>
       <c r="D557" s="2">
-        <v>45422.66666666666</v>
+        <v>45423.65625</v>
       </c>
       <c r="E557" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F557" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J557">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K557">
         <v>3.75</v>
       </c>
       <c r="L557">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M557">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N557">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O557">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P557">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q557">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R557">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S557">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T557">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U557">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V557">
         <v>0</v>

--- a/England League 2/England League 2.xlsx
+++ b/England League 2/England League 2.xlsx
@@ -133,10 +133,10 @@
     <t>Accrington Stanley</t>
   </si>
   <si>
-    <t>Crawley Town</t>
+    <t>Doncaster</t>
   </si>
   <si>
-    <t>Doncaster</t>
+    <t>Crawley Town</t>
   </si>
   <si>
     <t>Milton Keynes Dons</t>
@@ -1474,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6806696</v>
+        <v>6806698</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1486,79 +1486,79 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="M11">
         <v>3.5</v>
       </c>
       <c r="N11">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="P11">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q11">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="R11">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T11">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U11">
         <v>2.5</v>
       </c>
       <c r="V11">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA11">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
         <v>-1</v>
       </c>
       <c r="AD11">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1566,7 +1566,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6806698</v>
+        <v>6806696</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1578,79 +1578,79 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L12">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="M12">
         <v>3.5</v>
       </c>
       <c r="N12">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="O12">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="P12">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q12">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="R12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U12">
         <v>2.5</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
         <v>-1</v>
       </c>
       <c r="AD12">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -2590,7 +2590,7 @@
         <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2682,7 +2682,7 @@
         <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -3231,7 +3231,7 @@
         <v>45153.65625</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
         <v>41</v>
@@ -3415,7 +3415,7 @@
         <v>45153.65625</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -4059,7 +4059,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
@@ -4243,7 +4243,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
         <v>44</v>
@@ -4418,7 +4418,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6807875</v>
+        <v>6807874</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4427,79 +4427,79 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L43">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N43">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O43">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="P43">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q43">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AD43">
         <v>-1</v>
@@ -4510,7 +4510,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6807876</v>
+        <v>6807875</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4519,61 +4519,61 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" t="s">
         <v>54</v>
       </c>
       <c r="L44">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="M44">
         <v>3.4</v>
       </c>
       <c r="N44">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="P44">
         <v>3.4</v>
       </c>
       <c r="Q44">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="R44">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U44">
         <v>2.5</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4585,16 +4585,16 @@
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4602,7 +4602,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6808931</v>
+        <v>6807876</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4611,82 +4611,82 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K45" t="s">
         <v>54</v>
       </c>
       <c r="L45">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="M45">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N45">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O45">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q45">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="R45">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB45">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4694,7 +4694,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6807879</v>
+        <v>6808931</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
@@ -4703,79 +4703,79 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
         <v>4</v>
       </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
       <c r="K46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L46">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="M46">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N46">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O46">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="P46">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q46">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S46">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="U46">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W46">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z46">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD46">
         <v>-1</v>
@@ -4786,7 +4786,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6807878</v>
+        <v>6807879</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4795,34 +4795,34 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="s">
         <v>55</v>
       </c>
       <c r="L47">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="M47">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N47">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="O47">
         <v>2.55</v>
@@ -4831,25 +4831,25 @@
         <v>3.25</v>
       </c>
       <c r="Q47">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T47">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="U47">
         <v>2.25</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4858,16 +4858,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AC47">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD47">
         <v>-1</v>
@@ -4878,7 +4878,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6807874</v>
+        <v>6807878</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4887,61 +4887,61 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="s">
         <v>55</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="M48">
         <v>3.25</v>
       </c>
       <c r="N48">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="O48">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="P48">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q48">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U48">
         <v>2.25</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4950,16 +4950,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC48">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AD48">
         <v>-1</v>
@@ -5338,7 +5338,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6807883</v>
+        <v>6807017</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5347,16 +5347,16 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -5368,43 +5368,43 @@
         <v>56</v>
       </c>
       <c r="L53">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="M53">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N53">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O53">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="P53">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q53">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="R53">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U53">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W53">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X53">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5413,16 +5413,16 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD53">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5430,7 +5430,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6807017</v>
+        <v>6807018</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5439,82 +5439,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L54">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M54">
         <v>3.4</v>
       </c>
       <c r="N54">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O54">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="P54">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S54">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T54">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U54">
         <v>2.5</v>
       </c>
       <c r="V54">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X54">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="AA54">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD54">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5522,7 +5522,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6807018</v>
+        <v>6807759</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5531,79 +5531,79 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55" t="s">
         <v>55</v>
       </c>
       <c r="L55">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N55">
+        <v>3.9</v>
+      </c>
+      <c r="O55">
+        <v>1.7</v>
+      </c>
+      <c r="P55">
+        <v>3.75</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>-0.75</v>
+      </c>
+      <c r="S55">
+        <v>1.875</v>
+      </c>
+      <c r="T55">
+        <v>1.975</v>
+      </c>
+      <c r="U55">
+        <v>2.25</v>
+      </c>
+      <c r="V55">
+        <v>1.975</v>
+      </c>
+      <c r="W55">
+        <v>1.875</v>
+      </c>
+      <c r="X55">
+        <v>-1</v>
+      </c>
+      <c r="Y55">
+        <v>-1</v>
+      </c>
+      <c r="Z55">
         <v>4</v>
       </c>
-      <c r="O55">
-        <v>1.833</v>
-      </c>
-      <c r="P55">
-        <v>3.5</v>
-      </c>
-      <c r="Q55">
-        <v>4.5</v>
-      </c>
-      <c r="R55">
-        <v>-0.5</v>
-      </c>
-      <c r="S55">
-        <v>1.85</v>
-      </c>
-      <c r="T55">
-        <v>2</v>
-      </c>
-      <c r="U55">
-        <v>2.5</v>
-      </c>
-      <c r="V55">
-        <v>1.875</v>
-      </c>
-      <c r="W55">
-        <v>1.975</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
-      <c r="Y55">
-        <v>-1</v>
-      </c>
-      <c r="Z55">
-        <v>3.5</v>
-      </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC55">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD55">
         <v>-1</v>
@@ -5626,7 +5626,7 @@
         <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5810,7 +5810,7 @@
         <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -5890,7 +5890,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6807759</v>
+        <v>6807883</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -5899,40 +5899,40 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="M59">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N59">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="O59">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P59">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -5941,40 +5941,40 @@
         <v>-0.75</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB59">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AD59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -6270,7 +6270,7 @@
         <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G63">
         <v>3</v>
@@ -6451,7 +6451,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
         <v>50</v>
@@ -7279,7 +7279,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
         <v>52</v>
@@ -7834,7 +7834,7 @@
         <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -8938,7 +8938,7 @@
         <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -9027,7 +9027,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
         <v>35</v>
@@ -9303,7 +9303,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
         <v>48</v>
@@ -10042,7 +10042,7 @@
         <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -10591,7 +10591,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
         <v>34</v>
@@ -11146,7 +11146,7 @@
         <v>49</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>3</v>
@@ -11971,10 +11971,10 @@
         <v>45202.65625</v>
       </c>
       <c r="E125" t="s">
+        <v>39</v>
+      </c>
+      <c r="F125" t="s">
         <v>40</v>
-      </c>
-      <c r="F125" t="s">
-        <v>39</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -13262,7 +13262,7 @@
         <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -13535,7 +13535,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
         <v>32</v>
@@ -14271,7 +14271,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
         <v>34</v>
@@ -14734,7 +14734,7 @@
         <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -15559,7 +15559,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
         <v>30</v>
@@ -15927,7 +15927,7 @@
         <v>45223.65625</v>
       </c>
       <c r="E168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F168" t="s">
         <v>51</v>
@@ -16298,7 +16298,7 @@
         <v>45</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -16850,7 +16850,7 @@
         <v>37</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -16939,7 +16939,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E179" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F179" t="s">
         <v>36</v>
@@ -19055,7 +19055,7 @@
         <v>45241.5</v>
       </c>
       <c r="E202" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F202" t="s">
         <v>38</v>
@@ -19150,7 +19150,7 @@
         <v>47</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -19794,7 +19794,7 @@
         <v>49</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -20254,7 +20254,7 @@
         <v>30</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G215">
         <v>3</v>
@@ -20803,7 +20803,7 @@
         <v>45255.5</v>
       </c>
       <c r="E221" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F221" t="s">
         <v>46</v>
@@ -21818,7 +21818,7 @@
         <v>44</v>
       </c>
       <c r="F232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -21999,7 +21999,7 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E234" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F234" t="s">
         <v>53</v>
@@ -22370,7 +22370,7 @@
         <v>38</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -22646,7 +22646,7 @@
         <v>53</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -22919,7 +22919,7 @@
         <v>45276.5</v>
       </c>
       <c r="E244" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F244" t="s">
         <v>42</v>
@@ -23839,7 +23839,7 @@
         <v>45276.5</v>
       </c>
       <c r="E254" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F254" t="s">
         <v>33</v>
@@ -24115,7 +24115,7 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E257" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F257" t="s">
         <v>43</v>
@@ -24483,7 +24483,7 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E261" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F261" t="s">
         <v>47</v>
@@ -25222,7 +25222,7 @@
         <v>48</v>
       </c>
       <c r="F269" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -26050,7 +26050,7 @@
         <v>44</v>
       </c>
       <c r="F278" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G278">
         <v>3</v>
@@ -26602,7 +26602,7 @@
         <v>41</v>
       </c>
       <c r="F284" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G284">
         <v>2</v>
@@ -27062,7 +27062,7 @@
         <v>42</v>
       </c>
       <c r="F289" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -27795,7 +27795,7 @@
         <v>45292.5</v>
       </c>
       <c r="E297" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F297" t="s">
         <v>50</v>
@@ -28163,7 +28163,7 @@
         <v>45292.5</v>
       </c>
       <c r="E301" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F301" t="s">
         <v>41</v>
@@ -28442,7 +28442,7 @@
         <v>46</v>
       </c>
       <c r="F304" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G304">
         <v>3</v>
@@ -28810,7 +28810,7 @@
         <v>43</v>
       </c>
       <c r="F308" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G308">
         <v>2</v>
@@ -29267,7 +29267,7 @@
         <v>45304.5</v>
       </c>
       <c r="E313" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F313" t="s">
         <v>51</v>
@@ -29819,7 +29819,7 @@
         <v>45304.5</v>
       </c>
       <c r="E319" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F319" t="s">
         <v>52</v>
@@ -31561,7 +31561,7 @@
         <v>45318.5</v>
       </c>
       <c r="E338" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F338" t="s">
         <v>31</v>
@@ -32021,7 +32021,7 @@
         <v>45325.5</v>
       </c>
       <c r="E343" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F343" t="s">
         <v>33</v>
@@ -32668,7 +32668,7 @@
         <v>34</v>
       </c>
       <c r="F350" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G350">
         <v>1</v>
@@ -33128,7 +33128,7 @@
         <v>30</v>
       </c>
       <c r="F355" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G355">
         <v>1</v>
@@ -33861,7 +33861,7 @@
         <v>45332.5</v>
       </c>
       <c r="E363" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F363" t="s">
         <v>35</v>
@@ -34232,7 +34232,7 @@
         <v>51</v>
       </c>
       <c r="F367" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G367">
         <v>2</v>
@@ -34965,7 +34965,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E375" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F375" t="s">
         <v>45</v>
@@ -35060,7 +35060,7 @@
         <v>36</v>
       </c>
       <c r="F376" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G376">
         <v>1</v>
@@ -35517,7 +35517,7 @@
         <v>45339.5</v>
       </c>
       <c r="E381" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F381" t="s">
         <v>37</v>
@@ -36256,7 +36256,7 @@
         <v>47</v>
       </c>
       <c r="F389" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G389">
         <v>0</v>
@@ -36624,7 +36624,7 @@
         <v>38</v>
       </c>
       <c r="F393" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G393">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>45346.5</v>
       </c>
       <c r="E402" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F402" t="s">
         <v>47</v>
@@ -38188,7 +38188,7 @@
         <v>45</v>
       </c>
       <c r="F410" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G410">
         <v>3</v>
@@ -39108,7 +39108,7 @@
         <v>33</v>
       </c>
       <c r="F420" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G420">
         <v>1</v>
@@ -39200,7 +39200,7 @@
         <v>43</v>
       </c>
       <c r="F421" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G421">
         <v>1</v>
@@ -39844,7 +39844,7 @@
         <v>46</v>
       </c>
       <c r="F428" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G428">
         <v>1</v>
@@ -39933,7 +39933,7 @@
         <v>45360.5</v>
       </c>
       <c r="E429" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F429" t="s">
         <v>30</v>
@@ -40669,7 +40669,7 @@
         <v>45363.69791666666</v>
       </c>
       <c r="E437" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F437" t="s">
         <v>44</v>
@@ -41960,7 +41960,7 @@
         <v>50</v>
       </c>
       <c r="F451" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G451">
         <v>1</v>
@@ -42509,7 +42509,7 @@
         <v>45369.69791666666</v>
       </c>
       <c r="E457" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F457" t="s">
         <v>31</v>
@@ -42880,7 +42880,7 @@
         <v>35</v>
       </c>
       <c r="F461" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G461">
         <v>1</v>
@@ -42969,7 +42969,7 @@
         <v>45374.5</v>
       </c>
       <c r="E462" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F462" t="s">
         <v>37</v>
@@ -44073,10 +44073,10 @@
         <v>45380.5</v>
       </c>
       <c r="E474" t="s">
+        <v>40</v>
+      </c>
+      <c r="F474" t="s">
         <v>39</v>
-      </c>
-      <c r="F474" t="s">
-        <v>40</v>
       </c>
       <c r="G474">
         <v>0</v>
@@ -44996,7 +44996,7 @@
         <v>52</v>
       </c>
       <c r="F484" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G484">
         <v>0</v>
@@ -45729,7 +45729,7 @@
         <v>45384.65625</v>
       </c>
       <c r="E492" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F492" t="s">
         <v>32</v>
@@ -46376,7 +46376,7 @@
         <v>42</v>
       </c>
       <c r="F499" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G499">
         <v>1</v>
@@ -46468,7 +46468,7 @@
         <v>33</v>
       </c>
       <c r="F500" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G500">
         <v>0</v>
@@ -47100,7 +47100,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>7847673</v>
+        <v>7847669</v>
       </c>
       <c r="C507" t="s">
         <v>29</v>
@@ -47109,79 +47109,79 @@
         <v>45391.65625</v>
       </c>
       <c r="E507" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F507" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G507">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I507">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K507" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L507">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="M507">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="N507">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="O507">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="P507">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q507">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="R507">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S507">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T507">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U507">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V507">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W507">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X507">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y507">
         <v>-1</v>
       </c>
       <c r="Z507">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA507">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB507">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC507">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AD507">
         <v>-1</v>
@@ -47192,7 +47192,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>7847669</v>
+        <v>7753036</v>
       </c>
       <c r="C508" t="s">
         <v>29</v>
@@ -47201,55 +47201,55 @@
         <v>45391.65625</v>
       </c>
       <c r="E508" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F508" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G508">
         <v>1</v>
       </c>
       <c r="H508">
+        <v>0</v>
+      </c>
+      <c r="I508">
+        <v>1</v>
+      </c>
+      <c r="J508">
+        <v>0</v>
+      </c>
+      <c r="K508" t="s">
+        <v>56</v>
+      </c>
+      <c r="L508">
+        <v>1.4</v>
+      </c>
+      <c r="M508">
+        <v>4.1</v>
+      </c>
+      <c r="N508">
+        <v>7.5</v>
+      </c>
+      <c r="O508">
+        <v>1.363</v>
+      </c>
+      <c r="P508">
+        <v>4.75</v>
+      </c>
+      <c r="Q508">
+        <v>9</v>
+      </c>
+      <c r="R508">
+        <v>-1.5</v>
+      </c>
+      <c r="S508">
+        <v>2</v>
+      </c>
+      <c r="T508">
+        <v>1.85</v>
+      </c>
+      <c r="U508">
         <v>3</v>
-      </c>
-      <c r="I508">
-        <v>1</v>
-      </c>
-      <c r="J508">
-        <v>1</v>
-      </c>
-      <c r="K508" t="s">
-        <v>55</v>
-      </c>
-      <c r="L508">
-        <v>2.5</v>
-      </c>
-      <c r="M508">
-        <v>3.4</v>
-      </c>
-      <c r="N508">
-        <v>2.5</v>
-      </c>
-      <c r="O508">
-        <v>2.875</v>
-      </c>
-      <c r="P508">
-        <v>3.5</v>
-      </c>
-      <c r="Q508">
-        <v>2.375</v>
-      </c>
-      <c r="R508">
-        <v>0.25</v>
-      </c>
-      <c r="S508">
-        <v>1.8</v>
-      </c>
-      <c r="T508">
-        <v>2.05</v>
-      </c>
-      <c r="U508">
-        <v>2.75</v>
       </c>
       <c r="V508">
         <v>1.95</v>
@@ -47258,25 +47258,25 @@
         <v>1.9</v>
       </c>
       <c r="X508">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y508">
         <v>-1</v>
       </c>
       <c r="Z508">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA508">
         <v>-1</v>
       </c>
       <c r="AB508">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC508">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD508">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="509" spans="1:30">
@@ -47284,7 +47284,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>7753036</v>
+        <v>7777543</v>
       </c>
       <c r="C509" t="s">
         <v>29</v>
@@ -47293,16 +47293,16 @@
         <v>45391.65625</v>
       </c>
       <c r="E509" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F509" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G509">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I509">
         <v>1</v>
@@ -47314,43 +47314,43 @@
         <v>56</v>
       </c>
       <c r="L509">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="M509">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="N509">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="O509">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="P509">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q509">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="R509">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S509">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T509">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U509">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V509">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W509">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X509">
-        <v>0.363</v>
+        <v>1.25</v>
       </c>
       <c r="Y509">
         <v>-1</v>
@@ -47359,16 +47359,16 @@
         <v>-1</v>
       </c>
       <c r="AA509">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB509">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC509">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD509">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510" spans="1:30">
@@ -47376,7 +47376,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>7777543</v>
+        <v>7847670</v>
       </c>
       <c r="C510" t="s">
         <v>29</v>
@@ -47385,19 +47385,19 @@
         <v>45391.65625</v>
       </c>
       <c r="E510" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F510" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G510">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J510">
         <v>0</v>
@@ -47415,34 +47415,34 @@
         <v>2.5</v>
       </c>
       <c r="O510">
+        <v>3.25</v>
+      </c>
+      <c r="P510">
+        <v>3.3</v>
+      </c>
+      <c r="Q510">
+        <v>2.3</v>
+      </c>
+      <c r="R510">
+        <v>0.25</v>
+      </c>
+      <c r="S510">
+        <v>1.875</v>
+      </c>
+      <c r="T510">
+        <v>1.975</v>
+      </c>
+      <c r="U510">
         <v>2.25</v>
       </c>
-      <c r="P510">
-        <v>3.5</v>
-      </c>
-      <c r="Q510">
-        <v>3.1</v>
-      </c>
-      <c r="R510">
-        <v>-0.25</v>
-      </c>
-      <c r="S510">
-        <v>1.925</v>
-      </c>
-      <c r="T510">
-        <v>1.925</v>
-      </c>
-      <c r="U510">
-        <v>2.5</v>
-      </c>
       <c r="V510">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W510">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="X510">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="Y510">
         <v>-1</v>
@@ -47451,16 +47451,16 @@
         <v>-1</v>
       </c>
       <c r="AA510">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB510">
         <v>-1</v>
       </c>
       <c r="AC510">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD510">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="511" spans="1:30">
@@ -47468,7 +47468,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>7847670</v>
+        <v>7847673</v>
       </c>
       <c r="C511" t="s">
         <v>29</v>
@@ -47477,19 +47477,19 @@
         <v>45391.65625</v>
       </c>
       <c r="E511" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F511" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G511">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I511">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J511">
         <v>0</v>
@@ -47498,43 +47498,43 @@
         <v>56</v>
       </c>
       <c r="L511">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="M511">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="N511">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="O511">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="P511">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q511">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="R511">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S511">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T511">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U511">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V511">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W511">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="X511">
-        <v>2.25</v>
+        <v>0.615</v>
       </c>
       <c r="Y511">
         <v>-1</v>
@@ -47543,16 +47543,16 @@
         <v>-1</v>
       </c>
       <c r="AA511">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB511">
         <v>-1</v>
       </c>
       <c r="AC511">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD511">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512" spans="1:30">
@@ -48213,7 +48213,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E519" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F519" t="s">
         <v>53</v>
@@ -48581,7 +48581,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E523" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F523" t="s">
         <v>38</v>
@@ -48765,7 +48765,7 @@
         <v>45398.65625</v>
       </c>
       <c r="E525" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F525" t="s">
         <v>49</v>
@@ -49412,7 +49412,7 @@
         <v>34</v>
       </c>
       <c r="F532" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G532">
         <v>2</v>
@@ -50053,7 +50053,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E539" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F539" t="s">
         <v>49</v>
@@ -50240,7 +50240,7 @@
         <v>53</v>
       </c>
       <c r="F541" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G541">
         <v>1</v>
@@ -50513,7 +50513,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E544" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F544" t="s">
         <v>36</v>
@@ -51252,7 +51252,7 @@
         <v>48</v>
       </c>
       <c r="F552" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G552">
         <v>2</v>
@@ -51528,7 +51528,7 @@
         <v>30</v>
       </c>
       <c r="F555" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G555">
         <v>0</v>
@@ -51617,7 +51617,7 @@
         <v>45419.64583333334</v>
       </c>
       <c r="E556" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F556" t="s">
         <v>41</v>
@@ -51709,7 +51709,7 @@
         <v>45422.66666666666</v>
       </c>
       <c r="E557" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F557" t="s">
         <v>30</v>
@@ -51804,7 +51804,7 @@
         <v>41</v>
       </c>
       <c r="F558" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G558">
         <v>1</v>
@@ -51893,7 +51893,7 @@
         <v>45431.375</v>
       </c>
       <c r="E559" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F559" t="s">
         <v>30</v>
